--- a/Akan/Ananse00/Models.xlsx
+++ b/Akan/Ananse00/Models.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="223">
   <si>
     <t>AKAN</t>
   </si>
@@ -25,91 +25,319 @@
     <t>ENGLISH</t>
   </si>
   <si>
-    <t>SE 'YOYE A NYANSA BA OMANM'</t>
-  </si>
-  <si>
-    <t>YE se Kwaku Ananse na owo ho, na oprapraa nyansa nnyina boaa­ 'no na ode guu toam'.</t>
-  </si>
-  <si>
-    <t>Ose ode foro dua ako sen so, na nyansa nnyina asa asase so.</t>
-  </si>
-  <si>
-    <t>Na omaa so se ode koro, na oko duruu dua a, ode eko sen so, ase, na ode homa sa toa no so, na ode yaneye, na toa no bedii n' anim', na ode kaa dua no se oforo.</t>
-  </si>
-  <si>
-    <t>Oforo, foro, foro a, twon !</t>
-  </si>
-  <si>
-    <t>Na ode aka no bio, nso oforo, foro, foro, twon!</t>
-  </si>
-  <si>
-    <t>Na ne ba, Ntikuma, gyina ho a, ose, "E ! w'ani awu, nkra wo danee toa no too w'akyi a, nkra watimi afo'."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ose, "So ho ne wo mpan'insem." </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Na wasan aforo bio sara, nsoso pasa !</t>
-  </si>
-  <si>
-    <t>Afei na ofwe ha, na ode toa no too n'akyi.</t>
-  </si>
-  <si>
-    <t>Afeidie ode kaa no, kra! kra ! kra ! ona okoro no.</t>
-  </si>
-  <si>
-    <t>Oduruu dua no nkon, ose, "Kwaku Ananse mawu Afio, me 'ba, kete, kete, kete, me, me wo ho yi, maboaboa nyansa nnyina ano, na se ebi aka na me ara manhu, na me 'ba, totofefewa, na wakyere me! "</t>
-  </si>
-  <si>
-    <t>Na osoo toa no mu,. na tintini ! na atoo toa no twene, na tesee !</t>
-  </si>
-  <si>
-    <t>Ene se nyansa obiara nyaa bie, na wo a wanko ho ntem no, ene (sebe) 'kwasea.</t>
-  </si>
-  <si>
-    <t>M'anansesem a metooye yi, se eye de o, se ennye de o, momfa bi nko na momfa bi mmere me.</t>
-  </si>
-  <si>
-    <t>HOW IT CAME ABOUT THAT WISDOM CAME AMONG THE TRIBE</t>
-  </si>
-  <si>
-    <t>THEY say that Kwaku, the Spider, was there, and that he swept up all knowledge, gathered it together in one spot, and placed it in a gourd pot.</t>
-  </si>
-  <si>
-    <t>He then declared that he would climb a tree and go and hang it on it, so that all wisdom on earth would be finished.</t>
-  </si>
-  <si>
-    <t>So he took it up to go with it, and when he reached beneath the tree where he was going to hang it, he took a string, and tied it to the gourd, and hung it in front of him, and he set himself to climb the tree.</t>
-  </si>
-  <si>
-    <t>He climbed, and climbed, and climbed; in vain.</t>
-  </si>
-  <si>
-    <t>He strove again, again he made to climb, and climb, and climb; in vain.</t>
-  </si>
-  <si>
-    <t>Now, his son, Ntikuma, who was standing by, said, " Oh, your eyes have surely died (for shame), would it not have been better if you had turned round the gourd and put it on your back, then doubtless you would have been able to climb? "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He (the Spider) said, "Clear out, you and your old-fashioned sayings." </t>
-  </si>
-  <si>
-    <t>Then he turned to climb once more as before, but once again, fruitlessly.</t>
-  </si>
-  <si>
-    <t>Then he considered long, and (finally) took the gourd and put it behind him.</t>
-  </si>
-  <si>
-    <t>Then he set himself to climb, and mounted swiftly, Kra! kra! kra! (was the sound of his climbing); there he goes.</t>
-  </si>
-  <si>
-    <t>He reached where the branches began to spread out from the stem, and he said (to himself), " I, Kwaku Ananse, by the lesser god, Afio! I might as well be dead, my child who is so small, so small, so small there was I, I collected all wisdom (so I thought) in one place, yet some remained which even I did not perceive, and lo! my child, this still-sucking infant, has shown it me."</t>
-  </si>
-  <si>
-    <t>Then he seized that gourd, and there was a sound of rending, tintini! and he cast it away, and there was a sound of scattering, tesee!</t>
-  </si>
-  <si>
-    <t>That is how every one got wisdom; and any one who did not go there in time (to pick some up) is-excuse my saying so-a fool.</t>
+    <t>Ye' nse se, nse se o</t>
+  </si>
+  <si>
+    <t>ANANSE SEE O'KO PE 'KWASEA, NANSO ONO ARA NA OYEE 'KWASEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANANSE na ote ho, na osee o'pe 'kwasea ne no asi nsoa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okyin, kyin, kyin, wannya bi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na oko hyiaa Osansa. </t>
+  </si>
+  <si>
+    <t>Osee, " Ma yen ko si nsoa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osansa see, " Me wo nam me di." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na akyiri yi na oko hyiaa Anene, na osee, "Ma yenko si nsoa." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anene see, " M'ate." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na yei na Osansa ka kyeree Anene se, "Nsoa a wo'ko ne Ananse asie no, nko, na Ananse se o'pe 'kwasea, na one no asi nsoa no na wadi sika no nnyina." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anene see, "Wo die gyae, na me na megye sika no nnyina." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anene ne Ananse sjim' koo wuram' ko twitwaa papa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anene ka kyeree Ananse se, " Fa sekan ma me na me ntwitwa, na wo so fa no bere." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse see, " Me na wo bu me 'kwasea? ma me ntwitwa, na wo so fa no bere." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse e'twitwa na Anene te ho na o'pene. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otwitwa wieye, na na ye'kyekyereye. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anene see, "Ananse ma me mfa nsoa, na wo so fa no bere." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse see, " So' ho, na me na wo bu me 'kwasea?" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na ofa soaye. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anene dii akyire na o'pene. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ye'baa 'fie, Anene see, "Ma me mmeyo nsoa, na w'afa no bere." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse see, "Dabi da ma me nyo, na wo so fa no bere." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Anene ko daa ayeya na o'pene. </t>
+  </si>
+  <si>
+    <t>Ananse see, "Kwasea, wo se wo nim nyansa, na wo' wuo no."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse wiee nsoa no, Anene see, " Ma me mfa nsoa, me nko nsuom' na w'afa no bere." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse see, "Dabi, na me'de'ko, na w'afa no bere." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ye'ko duruu nsuo nom'; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anene see, "Agya Ananse aboa bi wo nsuom' na ma me nsim' me mfa nsoa yi nnum', na aboa no ka me a, w'afa ne wuo." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse see, "A! wo bu me 'kwasea pa, me, me de'ko gum' na oka me a, w'afa no wuo." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse de nsoa no ko guum', na ye'baa 'fie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adeekyeye, ye'ko fwee nsoa no, na ayi adwene mmienu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anene see, "Ananse, wo fa mmienu yi, na okyena ye'beba na ayi nnan, na me so m'afa." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse see, "A! akoa yi, wo bu me 'kwasea pa; wo fa mmienu yi, na me so okyena m'afa nnan no." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anene faye. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adeekyeye, ye'koye na ayi nnan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anene see, "Wo fa nnan yi, na okyena ye'beba na ayi nwotwe, na me so m'afa." </t>
+  </si>
+  <si>
+    <t>Ananse see, "Wo bu me 'kwasea, wo fa nnan yi, na me so okyena m'afa nwotwe."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adeekyeye ye'koye, na ayi nwotwe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anene see, "Fa, na okyena me so m'afa dunsia." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse see, " Me na wo bu me 'kwasea, wo so fa nwotwe, na okyena m'afa dunsia." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efei na nsoa no asee, na Anene ka kyeree Ananse se, "Ko fa nsoa funu bra, na wo ton a, bafua bi'a, ntanu, nti wo Agya Ananse gye adwene yi na fa nsoa funu yi ma me." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse see, "Dabi, wo ko ton adwene no fa, na me so me'ko ton nsoa funu yi m'afa." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ye'soasoaye koo edwam'. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seisei na Anene die nnyina asa; onyaa sika bebre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na aka Ananse. </t>
+  </si>
+  <si>
+    <t>Na Anene ka kyeree no se, "Fa nsoa funu yi ko kyin, na ye'beto."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse maa so; osee, " Me ton nsoa funu o! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na odekuro teye, na osee, "Akoa yi firi he, mo nko fre no mma no mmera? " Ananse koye. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odekuro see, "Wo gye di se yen a ye'wo kurom' ha ye'ye nkwasea; na wo yonko beton adwene yi, w'anhu, na w'abe-ton nsoa funu ama yen? " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odekuro see, " Mo mmo' no." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na ye'fwee no. </t>
+  </si>
+  <si>
+    <t>Na Anene see, "Ananse w'ahu, w'ani awu; wo se wo'pe 'kwasea ne no aye adwuma, w'ahu se wo'a na wo ye 'kwasea."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M'anansesem a metooye yi, se eye de o, se ennye de o, momfa bi nko, na momfa bi mmera. </t>
+  </si>
+  <si>
+    <t>We do not really mean, we do not really mean, (that what we are going to say is true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANANSE, THE SPIDER, SAID HE WAS GOING IN SEARCH OF A FOOL, WHILE ALL THE TIME HE HIMSELF WAS A FOOL </t>
+  </si>
+  <si>
+    <t>ANANSE, the Spider, was once living there, and he said he was wanting a fool to go with him to set fish-traps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He wandered all about, but could not get one. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then he met Osansa, the Hawk. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He said, " Let us go and set fish-traps." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hawk replied, " I have (plenty) meat to eat." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afterwards he met Anene, the Crow, and he said, "Let us go and set fish-traps." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Crow said, " I have heard." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now, the Hawk said to the Crow, "About this fish trap-setting expedition on which you and Ananse are going, don't go, for Ananse says he is looking for a fool, that when he and the fool set fish-traps, he will get all the money." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Crow replied, "You need not say any more, for I will see to it that I get all the money." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Crow and the Spider set out for the bush to cut palm branches. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Crow said to Ananse, " Give me the knife and I shall go and cut (them), and your work will be to take the weariness (resulting from my labour)." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider replied, " Do you take me for a fool; let me do the cutting, while you will take the weariness thereof." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse was cutting (the palms) while Anene, the Crow, sat there groaning. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When he had finished cutting (them), they tied them (in a bundle). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Crow said, " Spider, let me take and carry them, while you will take the weariness thereof." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider replied, " Get out, you take me for a fool? " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And he took them and placed them on his head. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Crow followed behind and he was groaning. </t>
+  </si>
+  <si>
+    <t>When they reached home, the Crow said, " Let me make the fish-traps and you take the weariness of my labours."</t>
+  </si>
+  <si>
+    <t>Ananse replied, " Never; let me make them and do you take the weariness."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then the Crow went and reclined on his back, and he was groaning. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse said, " Fool, you say you have sense, and yet you are dying." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider completed the fish-traps. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Crow said, " Let me carry the fish-traps and take them to the water, and do you take the weariness thereof." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider said, "No, I shall go with them, and you take the weariness thereof."  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse said, "Ah, you take me for a proper fool; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I myself shall set the traps, and if he bites me, you will take the death thereof." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse took the fish-traps and set them in the water, and they came back home. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next morning, when things became visible, they went to examine the traps, and they had caught two fish. </t>
+  </si>
+  <si>
+    <t>The Crow said, " Spider, you take these two, and when tomorrow we come, and (the traps) have caught four, I in turn shall take them."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider replied, "This fellow! You take me for a proper fool; you take these two, and to-morrow, I in turn will take the four." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Crow took them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next morning they went (again to visit the traps), and they got out four (fish). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Crow said, "You take these four, and when to-morrow we come and have caught eight, I in turn shall take them." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider replied, "You take me for a fool; you have these four, and to-morrow I, too, shall take the eight." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next morning they went (to visit the traps) and got out eight. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Crow said, "Take (them), and to-morrow I, too, will take the sixteen." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider said, " You take me for fool; do you take the eight, and to-morrow I shall have the sixteen." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">By now the fish-traps have become worn out, and the Crow addressed the Spider, saying, " Go and fetch these rotten fish-traps, and when one sells them, one will get ntanu (i. e. (,i6) for each single (trap), so do you, Father Spider, take these fish, and take the rotten fish-traps and give them to me." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider said, "No, do you take the fish and go and sell them, and I shall take the rotten fish-traps and take (the proceeds)." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They carried (their things) off to a market. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immediately the Crow had disposed of all his goods; he got much gold dust. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">But there remained the Spider's (goods). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then the Crow said to him, "Take these rotten fish-traps and hawk them round and they will buy them." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider lifted them up; he said, " I am selling rotten fish-traps! " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now the head-man of the village heard (him), and he s‑aid, "Where does this fellow come from; go and call him to come." The Spider went. </t>
+  </si>
+  <si>
+    <t>The head-man said, " Do you suppose that we folk in the village here are fools; now your friend (here) came and sold fish (with profit), have you not noticed him, but you would dispose of rotten fish-traps to us? "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The head-man said, " Flog him." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">So they beat him. </t>
+  </si>
+  <si>
+    <t>Then the Crow said, "Spider, you have seen, your eyes are dead for shame; you said you were going in search of a fool to work with you, and you have (now) perceived that you yourself were the fool."</t>
   </si>
   <si>
     <t>This, my story, which I have related, if it be sweet, (or) if it be not sweet, take some elsewhere, and let some come back to me.</t>
@@ -118,224 +346,760 @@
     <t>GPT-4</t>
   </si>
   <si>
-    <t>English Translation: If there is wisdom, the nation will prosper.
-1. Literal Translation Mapping: The Akan phrase "SE 'YOYE A NYANSA BA OMANM'" literally translates to "If wisdom comes, the nation will prosper." The phrase is a conditional statement that connects the presence of wisdom to the prosperity of a nation. 
-2. Cultural Context: This phrase is a common proverb in Akan culture. Proverbs are an integral part of Akan oral tradition, used to impart wisdom and moral lessons. The proverb emphasizes the importance of wisdom in leadership and governance, a value deeply ingrained in Akan society. 
-3. Translation Clarification: The word "'YOYE" translates to "comes" or "arrives", "NYANSA" translates to "wisdom", "BA" translates to "will come" or "will happen", and "OMANM" translates to "nation" or "country". The phrase "SE 'YOYE A NYANSA BA OMANM'" therefore means "If wisdom comes, the nation will prosper." The phrase is not a literal statement about wisdom physically arriving, but rather a metaphorical statement about the importance of wise leadership for the prosperity of a nation.</t>
-  </si>
-  <si>
-    <t>English Translation: They say Kwaku Ananse has wisdom, and it was his excessive wisdom that led him to 'swallow a grinding stone'.
-1. Literal Translation Mapping: The literal translation of the Akan text is "They say Kwaku Ananse has it, and excessive wisdom gathered him and he swallowed a grinding stone". The phrase "owo ho" translates to "has it", referring to wisdom. The phrase "oprapraa nyansa nnyina boaa­ 'no" translates to "excessive wisdom gathered him". The phrase "ode guu toam" translates to "he swallowed a grinding stone". The actual meaning of the sentence is that Kwaku Ananse's wisdom led him to a difficult situation, represented by the act of swallowing a grinding stone.
-2. Cultural Context: Kwaku Ananse is a popular character in Akan folklore known for his wisdom and trickery. The act of swallowing a grinding stone is an idiom that represents getting oneself into a difficult or impossible situation due to one's actions. This line is a cautionary tale about the dangers of being too clever or cunning.
-3. Translation Clarification: The phrase "owo ho" is translated as "has wisdom" to faithfully represent the meaning of the Akan text. The phrase "oprapraa nyansa nnyina boaa­ 'no" is translated as "his excessive wisdom led him" to clarify the cause and effect relationship between Ananse's wisdom and his predicament. The phrase "ode guu toam" is translated as "swallow a grinding stone" to maintain the idiomatic meaning of the Akan text. The cultural and idiomatic meanings of the phrases are explained in the cultural context section.</t>
-  </si>
-  <si>
-    <t>English Translation: He says he can climb a tree beyond its top, yet wisdom does not dwell on the ground.
-1. Literal Translation Mapping: The literal translation of the Akan text is "He says he can climb a tree beyond its top, yet wisdom does not dwell on the ground." This is a proverb that is used to caution people who are overly confident or boastful. The first part of the proverb, "He says he can climb a tree beyond its top," is a metaphorical way of saying that someone is claiming to be able to do something impossible or beyond their capabilities. The second part, "yet wisdom does not dwell on the ground," implies that wisdom or knowledge is not something that can be easily picked up or acquired without effort.
-2. Cultural Context: This proverb is a common saying in the Akan culture, which values humility and wisdom. It is often used to remind people to be humble and not to overestimate their abilities. The use of the tree as a metaphor is significant in the Akan culture, as trees are often seen as symbols of strength, resilience, and wisdom.
-3. Translation Clarification: The phrase "ode foro dua ako sen so" literally translates to "he can climb a tree beyond its top," but in the context of the proverb, it means that someone is boasting about their abilities or achievements. The phrase "nyansa nnyina asa asase so" literally translates to "wisdom does not dwell on the ground," but it is used to imply that wisdom or knowledge is not something that can be easily acquired without effort or experience. The English translation maintains the metaphorical and idiomatic meaning of the original Akan text.</t>
-  </si>
-  <si>
-    <t>English Translation: And he climbed up, and he went to a tree, and he climbed higher than before, and then, he used his strength to pull himself up, and he climbed again, and he pulled himself up until he reached the top, and he called the tree a ladder.
-1. Literal Translation Mapping: The literal translation of the Akan text describes a person climbing a tree, using his strength to pull himself up, climbing again, and finally reaching the top. The person then refers to the tree as a ladder. The actual meaning of the sentence is about overcoming obstacles and reaching one's goals, with the tree symbolizing the challenges and the act of climbing representing the effort and determination required.
-2. Cultural Context: The Akan people are known for their rich oral tradition, which includes proverbs, riddles, and folktales. This line could be part of a folktale or proverb teaching about perseverance and determination. The reference to the tree as a ladder could be an idiom meaning using available resources to achieve one's goals.
-3. Translation Clarification: The phrase "ode koro" literally translates to "he climbed", but in the context of the sentence, it represents the effort and determination required to overcome challenges. The phrase "oko duruu dua" literally translates to "he went to a tree", but the tree symbolizes the challenges or obstacles. The phrase "ode eko sen so" literally translates to "he climbed higher than before", indicating progress. The phrase "ode homa sa toa no so" literally translates to "he used his strength to pull himself up", representing the person's perseverance. The phrase "ode yaneye" literally translates to "he climbed again", indicating persistence. The phrase "toa no bedii n' anim'" literally translates to "he pulled himself up until he reached the top", indicating achievement. The phrase "ode kaa dua no se oforo" literally translates to "he called the tree a ladder", which could be an idiom meaning using available resources to achieve one's goals.</t>
-  </si>
-  <si>
-    <t>English Translation: He has dug, dug, dug and it has collapsed!
-1. Literal Translation Mapping: The Akan sentence "Oforo, foro, foro a, twon!" literally translates to "He has dug, dug, dug and it has collapsed!" The repetition of the word "foro" (dug) is used for emphasis, to show the intensity or the amount of effort put into the action. The word "twon" means collapse, indicating the result of the action.
-2. Cultural Context: This sentence could be seen as an idiom in the Akan language. It is often used to describe a situation where someone has put in a lot of effort into something, only for it to fail or not yield the expected results. It could be used in various contexts, such as in business, relationships, or personal endeavors.
-3. Translation Clarification: The phrase "Oforo, foro, foro a, twon!" is translated faithfully as "He has dug, dug, dug and it has collapsed!" in English. The cultural or idiomatic meaning is explained as a situation of effort that results in failure. The repetition of "foro" (dug) is a common linguistic tool in Akan to emphasize the effort or action, which in English can be expressed through adverbs or adjectives such as "heavily" or "intensely". The word "twon" (collapse) is used metaphorically to represent failure or an undesirable outcome.</t>
-  </si>
-  <si>
-    <t>English Translation: She has bitten it before, but she bites, bites, bites, and swallows!
-1. Literal Translation Mapping: The literal translation of the Akan text is "And she has bitten it before, but she bites, bites, bites, and swallows!" The phrase "Na ode aka no bio" translates to "And she has bitten it before," while "nso oforo, foro, foro, twon" translates to "but she bites, bites, bites, and swallows." The repetition of the word "foro" (bites) is used for emphasis in the Akan language, similar to how repetition is used in English for emphasis.
-2. Cultural Context: This sentence could be a metaphorical expression used in the Akan culture to describe someone who repeatedly does something, even if they have done it before. It could be used to describe a person who is persistent or determined, or it could be used negatively to describe someone who is stubborn or unchanging. The specific cultural context would depend on the situation in which the phrase is used.
-3. Translation Clarification: The phrase "Na ode aka no bio" is translated as "She has bitten it before," which indicates that the person has done the action in the past. The phrase "nso oforo, foro, foro, twon" is translated as "but she bites, bites, bites, and swallows," which indicates that the person continues to do the action. The repetition of the word "foro" (bites) is used for emphasis, and the word "twon" (swallows) is used to indicate that the person not only bites but also swallows, suggesting that the person fully commits to the action.</t>
-  </si>
-  <si>
-    <t>English Translation: And his son, Ntikuma, standing there, said, "Eh! Your eyes are closed, you have turned your back to the door, and you have covered your pot."
-1. Literal Translation Mapping: The literal translation of the Akan text is: "And his child, Ntikuma, standing there, he says, "Eh! your eyes are dead, you have turned your back to the door, and you have covered your pot." The actual meaning of the sentence is that Ntikuma is pointing out the obliviousness or negligence of the person he is addressing. The phrase "your eyes are dead" is a metaphorical way of saying that the person is not aware of what is happening around them. The phrase "you have turned your back to the door" implies that the person is not prepared or alert for any incoming danger or opportunity. The phrase "you have covered your pot" suggests that the person is not ready to receive or share anything.
-2. Cultural Context: The Akan people are an ethnic group from Ghana and Ivory Coast. In their culture, proverbs and idiomatic expressions are commonly used in everyday conversation. The phrases used in this sentence are examples of such idiomatic expressions. The name "Ntikuma" is also significant in Akan folklore as he is known as the son of Ananse, the spider, who is a popular character in many West African folktales.
-3. Translation Clarification: The phrase "w'ani awu" is literally translated as "your eyes are dead", but in the context of the sentence, it means "you are not aware" or "you are oblivious". The phrase "nkra wo danee toa no too w'akyi" is literally translated as "you have turned your back to the door", which is a metaphorical way of saying that the person is not prepared or alert. The phrase "nkra watimi afo'" is literally translated as "you have covered your pot", which suggests that the person is not ready to receive or share anything. These phrases are idiomatic and their meanings are derived from the cultural context in which they are used.</t>
-  </si>
-  <si>
-    <t>English Translation: He says, "It's your turn and your family's affairs."
-1. Literal Translation Mapping: The Akan sentence "Ose, 'So ho ne wo mpan'insem'" literally translates to "He says, 'It's your turn and your family's affairs.'" The phrase "So ho" means "your turn" and "wo mpan'insem" refers to "your family's affairs." The verb "Ose" means "he says." The literal translation connects with the actual meaning of the sentence as it is a direct statement from someone indicating that it's now the responsibility of the person being addressed to handle their family's affairs.
-2. Cultural Context: This sentence does not contain any idioms or cultural references. However, it reflects the Akan culture's emphasis on family and the responsibilities that come with it. In Akan society, family affairs are considered very important and are often shared among family members. When it's someone's "turn," it means they are expected to take care of family matters.
-3. Translation Clarification: The phrase "So ho" is translated as "your turn," indicating that the responsibility has now shifted to the person being addressed. "Wo mpan'insem" is translated as "your family's affairs," referring to the matters or issues concerning the person's family. The verb "Ose" is translated as "he says," indicating that the statement is being relayed from another person. There are no idiomatic meanings in this sentence; all words are translated directly from Akan to English.</t>
-  </si>
-  <si>
-    <t>English Translation: And you have worn the same cloth twice, what a disgrace!
-1. Literal Translation Mapping: The literal translation of the Akan text is "And you have worn the same cloth twice, only disgrace!" The phrase "Na wasan aforo bio sara" translates to "And you have worn the same cloth twice" and "nsoso pasa" translates to "only disgrace". The actual meaning of the sentence is that it is considered disgraceful or shameful to wear the same outfit twice. 
-2. Cultural Context: In Akan culture, it is considered a sign of poverty or lack of fashion sense to wear the same outfit twice, especially in public or at social events. This is a cultural norm and expectation, and not meeting it can lead to social embarrassment or ridicule. This is reflected in the phrase "nsoso pasa", which is a strong expression of disapproval or disappointment.
-3. Translation Clarification: The phrase "Na wasan aforo bio sara" is a direct reference to the act of wearing the same outfit twice. The word "aforo" refers to cloth or outfit, "wasan" means to wear, and "bio" means twice. The phrase "nsoso pasa" is an idiomatic expression that translates to "only disgrace". It is used to express strong disapproval or disappointment. In this context, it is used to express the speaker's disapproval of the act of wearing the same outfit twice.</t>
-  </si>
-  <si>
-    <t>English Translation: Then he fell down, and he used his back to break it.
-1. Literal Translation Mapping: The literal translation of the Akan text is "Then he fell there, and used his back to break it." The phrase "ofwe ha" translates to "fell there," and "ode toa no too n'akyi" translates to "used his back to break it." The pronoun "it" in this context refers to the fall. The actual meaning of the sentence is that the person fell and landed on their back, implying a hard or painful fall.
-2. Cultural Context: This phrase is often used in Akan culture to describe a situation where someone has to bear the brunt or consequences of a situation, especially one that they caused themselves. It's a way of saying that someone has to face the repercussions of their actions. The cultural aspect present in this line is the use of physical imagery to convey abstract concepts, which is common in Akan proverbs and idioms.
-3. Translation Clarification: The phrase "ode toa no too n'akyi" is a figurative way of saying that the person had to deal with the consequences of their actions. The word "tooa" literally means "used" but in this context, it's more accurately translated as "had to deal with." The phrase "too n'akyi" literally means "broke his back," but it's used figuratively to mean "bear the brunt" or "face the consequences." The faithful English translation would be "Then he fell, and had to deal with the consequences."</t>
-  </si>
-  <si>
-    <t>English Translation: The birthday party made him cough, cough, cough, because he drank too much.
-1. Literal Translation Mapping: The literal translation of the Akan text is "Birthday, it made him cough, cough, cough, because he drank it." The phrase "ode kaa no" translates to "it made him cough," and "ona okoro no" translates to "because he drank it." The repetition of "kra! kra! kra!" is an onomatopoeic representation of the sound of coughing. The context of the sentence suggests that the subject drank too much at a birthday party, which caused him to cough.
-2. Cultural Context: The Akan people are known for their vibrant celebrations, including birthdays. Drinking is a common part of these celebrations. The phrase "ona okoro no" is a polite way of saying that someone drank too much, which is a common euphemism in Akan culture. The repetition of "kra! kra! kra!" is a common way in Akan language to emphasize the severity of the coughing.
-3. Translation Clarification: The phrase "Afeidie ode kaa no" is translated as "The birthday party made him cough," which is a faithful translation of the Akan text. The phrase "ona okoro no" is translated as "because he drank too much," which is a reference translation that takes into account the cultural context of the Akan text. The repetition of "kra! kra! kra!" is translated as "cough, cough, cough," which is an onomatopoeic representation of the sound of coughing in English.</t>
-  </si>
-  <si>
-    <t>English Translation: He climbed the tree and said, "Kwaku Ananse is dead, my child, slowly, slowly, slowly, I, I am here, I have gathered wisdom in my mouth, and if something happens that I do not see, my child, it is a lie, and it has deceived me!"
-1. Literal Translation Mapping: The literal translation of the Akan text is quite close to the actual meaning of the sentence. The speaker, presumably Kwaku Ananse, is expressing his wisdom and experience, and his disbelief that anything could happen without his knowledge. The repetition of "kete, kete, kete" and "me, me" emphasizes the slow, deliberate nature of his actions and his personal involvement, respectively.
-2. Cultural Context: Kwaku Ananse is a popular character in Akan folklore, often depicted as a trickster who uses his wisdom and cunning to overcome difficulties. The phrase "maboaboa nyansa nnyina ano" is a metaphorical way of saying that he has gathered a lot of wisdom, as wisdom is often symbolized by the mouth in Akan culture. The phrase "totofefewa" is an idiomatic expression meaning "it is a lie," expressing disbelief or denial.
-3. Translation Clarification: The phrase "mawu Afio" literally translates to "is dead," but in this context, it is used metaphorically to express a state of despair or hopelessness. The phrase "me 'ba" translates to "my child," and is used here as a term of endearment or familiarity. The phrase "na wakyere me" literally translates to "and it has deceived me," but in this context, it is used to express the speaker's surprise or disbelief that something could happen without his knowledge.</t>
-  </si>
-  <si>
-    <t>English Translation: He shot an arrow into it, and it rattled! He shot an arrow into the palm tree, and it whistled!
-1. Literal Translation Mapping: The Akan sentence "Na osoo toa no mu, na tintini! na atoo toa no twene, na tesee!" literally translates to "And he shot into it, and it rattled! And he shot into the palm tree, and it whistled!" The actual meaning of the sentence is that someone shot an arrow into something (possibly a target or an animal), causing a rattling sound, and then shot an arrow into a palm tree, causing a whistling sound. The repetition of the action and the sound it produces emphasizes the skill and precision of the shooter.
-2. Cultural Context: This sentence could be a part of a larger story or proverb, as Akan culture is rich in oral tradition and storytelling. The act of shooting an arrow is often used metaphorically in Akan proverbs to represent taking action or making a decision. The specific sounds produced (rattling and whistling) could be used to represent the consequences or results of those actions.
-3. Translation Clarification: The phrase "osoo toa no mu" translates to "he shot into it," with "osoo" meaning "he shot," "toa" meaning "arrow," and "no mu" meaning "into it." The phrase "na tintini" translates to "and it rattled," with "na" meaning "and" and "tintini" meaning "it rattled." The phrase "atoo toa no twene" translates to "he shot into the palm tree," with "atoo" meaning "he shot," "toa" meaning "arrow," "no" meaning "into," and "twene" meaning "palm tree." The phrase "na tesee" translates to "and it whistled," with "na" meaning "and" and "tesee" meaning "it whistled." The sounds "tintini" and "tesee" are onomatopoeic, imitating the sounds that the arrow makes when it hits its target.</t>
-  </si>
-  <si>
-    <t>English Translation: It is said that everyone has wisdom, but if you were there and let it pass by, then you are a fool.
-1. Literal Translation Mapping: The Akan sentence "Ene se nyansa obiara nyaa bie, na wo a wanko ho ntem no, ene (sebe) 'kwasea" literally translates to "It is said that wisdom is something everyone has gotten, but you who were there and let it pass by, it is said (that you are) a fool." The phrase "nyansa obiara nyaa bie" means "wisdom everyone has gotten," indicating that everyone has access to wisdom. The phrase "wo a wanko ho ntem no" means "you who were there and let it pass by," suggesting that the person had an opportunity to gain wisdom but did not take it. The final phrase "ene (sebe) 'kwasea" means "it is said (that you are) a fool," indicating the consequence of not taking the opportunity to gain wisdom.
-2. Cultural Context: The Akan people value wisdom and consider it a universal trait that everyone should strive to acquire. The phrase "nyansa obiara nyaa bie" reflects this cultural value. The term "kwasea" is a derogatory term in Akan, used to describe someone who acts foolishly or makes unwise decisions. This term is used in the sentence to emphasize the negative consequence of not taking the opportunity to gain wisdom.
-3. Translation Clarification: The phrase "nyansa obiara nyaa bie" is translated as "everyone has wisdom," which is a faithful translation of the Akan phrase. The phrase "wo a wanko ho ntem no" is translated as "if you were there and let it pass by," which is a reference translation that captures the idiomatic meaning of the Akan phrase. The term "kwasea" is translated as "fool," which is a faithful translation of the Akan term. The phrase "ene (sebe) 'kwasea" is translated as "then you are a fool," which is a reference translation that captures the idiomatic meaning of the Akan phrase.</t>
-  </si>
-  <si>
-    <t>English Translation: The Ananse stories that I have told, whether they are good or not, take some and leave some for me.
-1. Literal Translation Mapping: The literal translation of the Akan text is "The Ananse stories that I have told, if it is good, if it is not good, take some and leave some for me." The phrase "se eye de o, se ennye de o" literally translates to "if it is good, if it is not good," which is a way of saying "whether they are good or not" in English. The phrase "momfa bi nko na momfa bi mmere me" literally translates to "take some and leave some for me," which is a way of saying "take what you will and leave the rest" in English.
-2. Cultural Context: The term "Ananse stories" refers to a popular form of folklore in Akan culture. Ananse, also known as Anansi, is a trickster character who often appears in these stories. The phrase "take some and leave some for me" is a common saying in Akan culture, which means to take what you find useful and leave the rest.
-3. Translation Clarification: The phrase "M'anansesem a metooye yi" translates to "The Ananse stories that I have told." The term "Ananse stories" refers to a specific type of folklore in Akan culture, so it is important to maintain this reference in the translation. The phrase "se eye de o, se ennye de o" is a common saying in Akan that means "whether it is good or not," which is a way of saying "regardless of the quality" in English. The phrase "momfa bi nko na momfa bi mmere me" is a common saying in Akan that means "take some and leave some for me," which is a way of saying "take what you will and leave the rest" in English.</t>
+    <t>The Akan text "Ye' nse se, nse se o" translates to "We say that, it is so, it is so o" in English.
+1. Literal Translation Mapping: The phrase "Ye' nse se" translates to "We say that" and "nse se o" translates to "it is so o". The repetition of "nse se" emphasizes the certainty or agreement of the speaker. The "o" at the end is a common linguistic feature in Akan language used for emphasis or to express emotion. It doesn't have a direct English equivalent but can be likened to the use of "oh" in English for emphasis.
+2. Cultural Context: This phrase is often used in Akan culture during discussions or debates to express agreement or to affirm a point. It is a way of showing consensus or acceptance of a particular point of view. The use of "o" at the end for emphasis is a common feature in Akan and many other African languages.
+3. Translation Clarification: The phrase "Ye' nse se" is translated as "We say that" and "nse se o" is translated as "it is so o". The repetition of "nse se" is a way of emphasizing the point being made. The "o" at the end, while not having a direct English equivalent, is used for emphasis and can be likened to the use of "oh" in English. The overall phrase is a way of expressing agreement or affirmation in a discussion or debate.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said he was going to the market, but he himself is the fool.
+1. Literal Translation Mapping: The literal translation of the Akan text is "Ananse says he is going to the market, but he himself is the fool." The actual meaning of the sentence is that Ananse, a character in Akan folklore, is being called a fool, possibly for his actions or decisions. The phrase "he is going to the market" could be a metaphor for a decision or action he has taken.
+2. Cultural Context: Ananse is a well-known character in Akan folklore, often depicted as a trickster spider. He is known for his wisdom, but also for his cunning and deceitful ways. The term 'kwasea' is a derogatory term in Akan language, often used to refer to someone as a fool or idiot. The phrase "he is going to the market" could be a metaphor for a decision or action he has taken, which is seen as foolish.
+3. Translation Clarification: The phrase "Ananse says he is going to the market" is a direct translation, with 'Ananse' being a proper noun referring to the folklore character, 'says' translating the verb 'see', 'he is going' translating 'o'ko', and 'to the market' translating 'pe'. The phrase "but he himself is the fool" is also a direct translation, with 'but' translating 'nanso', 'he himself' translating 'ono ara', and 'is the fool' translating 'oyee 'kwasea'. The cultural or idiomatic meaning of calling someone 'kwasea' is explained above.</t>
+  </si>
+  <si>
+    <t>English Translation: It is Ananse who lives there, and he has made it his habit to call a fool to come and help him.
+1. Literal Translation Mapping: The sentence literally translates to "Ananse who lives there, and he has made it his habit to call a fool to come and help him." The phrase "Ananse na ote ho" refers to Ananse living in a particular place. The phrase "na osee o'pe 'kwasea ne no asi nsoa" means that Ananse has made it a habit to call a fool to come and help him. The actual meaning of the sentence is that Ananse, who lives in a particular place, has a habit of exploiting others who he considers less intelligent than him.
+2. Cultural Context: Ananse is a well-known character in Akan folklore. He is often portrayed as a trickster who uses his intelligence and cunning to get his way. The term 'kwasea' is a derogatory term in Akan, often used to refer to someone as a fool or idiot. This sentence could be seen as a critique of Ananse's character, highlighting his manipulative tendencies.
+3. Translation Clarification: The term 'Ananse' is a specific cultural reference to a character in Akan folklore, and it is translated directly as 'Ananse'. The phrase 'ote ho' translates to 'lives there', referring to Ananse's place of residence. The phrase 'osee o'pe 'kwasea ne no asi nsoa' is a bit more complex. 'Osee' translates to 'has made', 'o'pe' to 'his habit', 'kwasea' to 'fool', 'ne no' to 'to him', and 'asi nsoa' to 'come and help'. The phrase as a whole means that Ananse has made it a habit to call a fool to come and help him, implying that he regularly exploits others for his own benefit.</t>
+  </si>
+  <si>
+    <t>English Translation: Slowly, slowly, slowly, we have gotten something.
+1. Literal Translation Mapping: The Akan phrase "Okyin, kyin, kyin, wannya bi" literally translates to "Slowly, slowly, slowly, we have gotten something." The repetition of the word "kyin" (slowly) emphasizes the slow and gradual process of achieving or obtaining something. The phrase "wannya bi" means "we have gotten something," indicating that the slow and steady effort has resulted in some form of achievement or gain.
+2. Cultural Context: This phrase is often used in Akan culture to emphasize the importance of patience and perseverance. It is a common saying that reflects the belief that good things come to those who wait or that success comes to those who are patient and persistent. It is often used in situations where someone is working towards a goal or trying to achieve something, and it serves as a reminder that progress may be slow, but it is still progress.
+3. Translation Clarification: The word "Okyin" is translated as "slowly" in English, and the repetition of this word in the Akan phrase is used to emphasize the slow and steady nature of the process. The phrase "wannya bi" is translated as "we have gotten something," which indicates that the slow and steady effort has resulted in some form of achievement or gain. The English translation of this phrase maintains the cultural and idiomatic meaning of the original Akan phrase, emphasizing the importance of patience and perseverance in achieving one's goals.</t>
+  </si>
+  <si>
+    <t>English Translation: And he met Osansa.
+1. Literal Translation Mapping: The Akan sentence "Na oko hyiaa Osansa" translates directly to "And he went to meet Osansa". The verb "hyiaa" means "to meet" in Akan, and "oko" is a past tense marker indicating that the action has already taken place. "Osansa" is a proper noun, presumably the name of a person. The conjunction "na" means "and", connecting this sentence with a previous one. 
+2. Cultural Context: Without more context, it's hard to identify any specific cultural references or idioms. However, it's worth noting that "Osansa" could be a name specific to the Akan culture. In Akan culture, names often have significant meanings and can indicate factors like the day of the week a person was born, their position in the family, or special circumstances surrounding their birth.
+3. Translation Clarification: The phrase "oko hyiaa" translates directly to "went to meet", but in English, we would more commonly say "met". The name "Osansa" is left as is, as it's a proper noun. The conjunction "na" is translated to "and", which is its direct English equivalent. Without more context, it's hard to say if there are any idiomatic or cultural meanings that aren't being captured in this translation.</t>
+  </si>
+  <si>
+    <t>English Translation: He said, "Let's go and donate."
+1. Literal Translation Mapping: The Akan sentence "Osee, 'Ma yen ko si nsoa'" literally translates to "He said, 'Let us go and donate.'" The verb "ko" means "go," and "si nsoa" means "to donate." The pronoun "Ma yen" translates to "let us," indicating a collective action. The phrase "Osee" means "He said," indicating that the speaker is quoting someone else's words.
+2. Cultural Context: The act of giving or donating is a significant part of Akan culture. It is seen as a way of showing kindness and generosity, and it is often done in a communal or collective manner. This sentence could be used in various contexts, such as a call to contribute to a community project, help someone in need, or participate in a religious offering.
+3. Translation Clarification: The phrase "Ma yen ko" translates to "let's go," which is a common way of suggesting a collective action in English. The verb "si nsoa" translates to "donate," which is a straightforward translation. However, the cultural significance of donation in Akan culture adds a deeper layer of meaning to this phrase, as it implies a sense of communal responsibility and generosity. The phrase "Osee" is a common way of introducing quoted speech in Akan, similar to "he said" or "she said" in English.</t>
+  </si>
+  <si>
+    <t>English Translation: The crab says, "I carry my food in my body."
+1. Literal Translation Mapping: The literal translation of the Akan text is "Crab says, 'I have my food in me.'" The phrase "Me wo nam me di" translates to "I have my food in me." This is a metaphorical way of saying that the crab carries its food in its body. The actual meaning of the sentence is that the crab is self-sufficient and carries everything it needs within itself.
+2. Cultural Context: This is a proverb in the Akan culture. Proverbs are an integral part of African culture and are used to teach moral lessons, express wisdom, and give advice. The crab is often used in Akan proverbs to symbolize self-sufficiency and resilience. In this context, the crab is saying that it doesn't need to rely on anyone else for its sustenance because it carries its food within itself.
+3. Translation Clarification: The phrase "Me wo nam me di" is a metaphorical expression that means "I carry my food in my body." The word "nam" translates to "food," and "me di" translates to "I carry." The phrase "Osansa see" translates to "The crab says." In the English translation, the phrase "I carry my food in my body" is used to convey the same metaphorical meaning as the original Akan phrase. The cultural or idiomatic meaning of the phrase is that the crab is self-sufficient and doesn't need to rely on anyone else for its sustenance.</t>
+  </si>
+  <si>
+    <t>English Translation: "And at the end, he met Anene and said, 'Let's go to the farm.'"
+1. Literal Translation Mapping: The literal translation of the Akan text is "And end this he met Anene, and he said, 'Let us go to farm.'" The actual meaning of the sentence is that at the end of a certain event or time, the speaker encountered Anene and suggested that they go to the farm. The phrase "Ma yenko si nsoa" literally translates to "Let us go to farm," which in proper English would be "Let's go to the farm."
+2. Cultural Context: The name "Anene" is a common Akan name, indicating that the person being referred to is of Akan descent. The reference to farming suggests a rural or agricultural setting, which is common in many parts of Ghana where Akan is spoken. The phrase "Ma yenko si nsoa" is a common expression used when inviting someone to join in a task or activity, in this case, farming.
+3. Translation Clarification: The phrase "Na akyiri yi" translates to "And at the end," indicating the conclusion of a certain event or time. "Oko hyiaa Anene" translates to "he met Anene," with "oko" meaning "he met" and "Anene" being a proper noun. The phrase "na osee" translates to "and he said," with "na" meaning "and," "o" meaning "he," and "see" meaning "said." The phrase "Ma yenko si nsoa" translates to "Let's go to the farm," with "Ma" meaning "Let's," "yenko" meaning "go," "si" meaning "to," and "nsoa" meaning "farm."</t>
+  </si>
+  <si>
+    <t>English Translation: The bird says, "I have eaten."
+1. Literal Translation Mapping: The Akan sentence "Anene see, 'M'ate.'" literally translates to "Bird says, 'I have eaten.'" In Akan, the verb comes after the subject, similar to English. "Anene" is the Akan word for bird, "see" means says, and "M'ate" translates to "I have eaten." 
+2. Cultural Context: This sentence could be a part of a larger story or proverb, as Akan culture is rich in oral tradition and storytelling. Birds are often used in Akan proverbs and tales to symbolize various aspects of life, wisdom, or behavior. However, without additional context, it's hard to pinpoint the exact cultural significance of this sentence.
+3. Translation Clarification: The phrase "M'ate" is a first-person past tense statement meaning "I have eaten." In Akan, the subject pronoun is often included in the verb, so "M'ate" is a combination of "me" (I) and "ate" (have eaten). The word "Anene" directly translates to "bird," and "see" is a verb meaning "says." Therefore, the faithful English translation of "Anene see, 'M'ate.'" is "The bird says, 'I have eaten.'"</t>
+  </si>
+  <si>
+    <t>English Translation: And it was then that Osansa told Anene, "The money that you went with Ananse to deposit, all of it, Ananse says he likes 'foolishness', and he has taken all the money and spent it."
+1. Literal Translation Mapping: The literal translation of the sentence is quite close to the actual meaning. The phrase "Nsoa a wo'ko ne Ananse asie no, nko" translates to "The money that you went with Ananse to deposit, all of it". The phrase "Ananse se o'pe 'kwasea" translates to "Ananse says he likes 'foolishness'", and "na one no asi nsoa no na wadi sika no nnyina" translates to "and he has taken all the money and spent it". 
+2. Cultural Context: The characters mentioned, Osansa and Ananse, are common in Akan folklore. Ananse is a trickster figure, often depicted as a spider, who is known for his cunning and deceitful ways. The term 'kwasea', which is translated as 'foolishness', is a derogatory term in Akan language, often used to describe someone who acts without thinking or who behaves in a way that is not socially acceptable. 
+3. Translation Clarification: The phrase "Ananse se o'pe 'kwasea'" is a bit tricky to translate directly. The term 'kwasea' is a derogatory term, and the phrase could be translated as "Ananse says he likes acting foolishly" or "Ananse says he enjoys foolishness". However, in the context of the sentence and considering Ananse's character as a trickster, it is more accurate to interpret this as Ananse acting in a deceitful or irresponsible way, hence the translation "Ananse says he likes 'foolishness'". The phrase "na one no asi nsoa no na wadi sika no nnyina" is a straightforward description of Ananse taking all the money and spending it.</t>
+  </si>
+  <si>
+    <t>English Translation: Anene said, "Stop your work, for it is I who will take care of the money."
+1. Literal Translation Mapping: The literal translation of the Akan text is "Anene says, 'Your work stop, because me it is I take money it all.'" The actual meaning of the sentence is that Anene is telling someone to stop working because he will take care of all the money. The literal translation connects with the actual meaning by conveying the same message, albeit in a less grammatically correct way in English.
+2. Cultural Context: This sentence does not seem to contain any idioms, references, or cultural aspects. However, it's important to note that in Akan culture, as in many others, taking responsibility for financial matters is often seen as a sign of trustworthiness and reliability.
+3. Translation Clarification: The phrase "Wo die gyae" literally translates to "your work stop," but a more faithful English translation would be "stop your work." Similarly, "me na megye sika no nnyina" literally translates to "me it is I take money it all," but a more accurate English translation would be "it is I who will take care of all the money." The word "gyae" in Akan can mean "stop" or "quit," and in this context, it is used to tell someone to stop their work. The phrase "me na megye sika no nnyina" uses repetition of the pronoun "me" (I) for emphasis, a common feature in Akan language.</t>
+  </si>
+  <si>
+    <t>English Translation: The bird and Ananse went to the farm to weed.
+1. Literal Translation Mapping: The literal translation of the Akan text is "Anene and Ananse went to the farm to weed." Anene is a type of bird in Akan folklore, and Ananse is a popular character in Akan folklore, often depicted as a spider and known for his wisdom and trickery. The phrase "sjim' koo wuram' ko twitwaa papa" translates to "went to the farm to weed," indicating that Anene and Ananse were engaged in a common agricultural activity.
+2. Cultural Context: The characters Anene and Ananse are significant in Akan culture. Ananse, the spider, is a well-known trickster figure in Akan folklore, often used in moral tales to teach lessons about wisdom, resourcefulness, and the consequences of deceit. Anene, a bird, is also a common character in these stories. The act of going to the farm to weed is a common activity in many Akan communities, reflecting the agricultural lifestyle of many Akan people.
+3. Translation Clarification: The phrase "sjim' koo wuram' ko twitwaa papa" is a straightforward description of the action taking place. "Sjim' koo wuram'" translates to "went to the farm," and "ko twitwaa papa" translates to "to weed." The use of the word "papa" in this context does not refer to a father figure, but rather to the act of weeding or clearing a farm. The names Anene and Ananse are directly translated, as they are proper names of characters in Akan folklore.</t>
+  </si>
+  <si>
+    <t>English Translation: Anene said to Ananse, "Give me your knife for me to cut my thread, and then you can take it back."
+1. Literal Translation Mapping: The literal translation of the Akan text is "Anene said to Ananse, 'Give your knife to me for me to cut my thread, and then you can take it back.'" The actual meaning of the sentence is that Anene is asking Ananse to lend him his knife so he can cut his thread, after which Ananse can have his knife back. 
+2. Cultural Context: The characters Anene and Ananse are common in Akan folklore. Ananse is a trickster who often appears in the form of a spider and is known for his intelligence and cunning. The act of borrowing a knife to cut a thread is a simple, everyday task, but in the context of a story involving Ananse, it could have deeper implications or lead to unexpected consequences.
+3. Translation Clarification: The phrase "Fa sekan ma me" literally translates to "Give your knife to me," but in English, it would be more natural to say "Give me your knife." The phrase "na me ntwitwa" translates to "for me to cut my thread," which is a straightforward request. The phrase "na wo so fa no bere" translates to "and then you can take it back," indicating that Anene intends to return the knife after he has used it. The overall sentence maintains the same meaning in both languages, but the English translation is phrased in a way that is more familiar to English speakers.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said, "Is it me you're calling a fool? Give me my whip, and take yours at once."
+1. Literal Translation Mapping: The literal translation of the Akan text is: "Ananse says, 'Is it me you're calling 'fool'? Give me my whip, and take yours immediately.'" The actual meaning of the sentence is that Ananse is upset and defensive about being called a fool, and he demands his whip back, telling the other person to take theirs.
+2. Cultural Context: Ananse is a popular character in Akan folklore, known for his cunning and trickery. The term 'kwasea' is a derogatory term in Akan, meaning 'fool' or 'idiot'. The reference to whips could be a metaphor for power or control, or it could be a literal reference to a physical object in the context of the story.
+3. Translation Clarification: The phrase "Me na wo bu me 'kwasea?'" translates literally to "Is it me you're calling 'fool'?" This is a defensive response to an insult. The phrase "ma me ntwitwa, na wo so fa no bere" translates literally to "Give me my whip, and take yours immediately." This could be a demand for respect or control, or it could refer to a literal whip in the context of the story. The phrase "na wo so fa no bere" uses the Akan word 'bere', which means 'immediately' or 'at once', emphasizing the urgency of Ananse's demand.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse is being laughed at because Anene is there and he is showing off.
+1. Literal Translation Mapping: The literal translation of the Akan text is "Ananse is being laughed at and Anene is there and he is opening." The phrase "e'twitwa" means "is being laughed at", "te ho" means "is there", and "o'pene" means "he is opening". However, in the context of the sentence, "o'pene" is an idiomatic expression that means "showing off". Therefore, the actual meaning of the sentence is "Ananse is being laughed at because Anene is there and he is showing off."
+2. Cultural Context: Ananse is a character in Akan folklore who is often portrayed as a trickster. Anene is another character in Akan folklore. The sentence could be part of a story where Ananse is being ridiculed because Anene is present and showing off. This reflects the Akan culture's tradition of oral storytelling, where moral lessons are often taught through the actions of characters like Ananse and Anene.
+3. Translation Clarification: The phrase "Ananse e'twitwa" translates literally to "Ananse is being laughed at", but in the context of the sentence, it implies that Ananse is being ridiculed or made fun of. The phrase "na Anene te ho" translates to "because Anene is there", indicating that Anene's presence is the reason for Ananse's ridicule. The phrase "na o'pene" translates literally to "and he is opening", but as an idiomatic expression, it means "he is showing off". Therefore, the faithful English translation of the sentence is "Ananse is being laughed at because Anene is there and he is showing off."</t>
+  </si>
+  <si>
+    <t>English Translation: He has been crowned king, and he is being advised.
+1. Literal Translation Mapping: The literal translation of "Otwitwa wieye" is "He has been crowned" and "na na ye'kyekyereye" translates to "and he is being advised". The actual meaning of the sentence is that someone has assumed a position of power or leadership (in this case, a king) and is now receiving counsel or advice.
+2. Cultural Context: This sentence is straightforward and does not contain any idioms or cultural references. However, it's worth noting that in Akan culture, the crowning of a king is a significant event, often followed by a period of advice and counsel from elders and advisors. This is to ensure the new king understands his responsibilities and the traditions he must uphold.
+3. Translation Clarification: The phrase "Otwitwa wieye" directly translates to "He has been crowned", with "Otwitwa" meaning "he has been crowned" and "wieye" signifying the completion of the action. "Na na ye'kyekyereye" translates to "and he is being advised", with "na na" meaning "and" and "ye'kyekyereye" meaning "he is being advised". The sentence is a simple statement of fact, without any idiomatic or cultural meanings beyond the literal translation.</t>
+  </si>
+  <si>
+    <t>English Translation: Anene said, "Ananse, give me a lift, and you can also take it when you need it."
+1. Literal Translation Mapping: The literal translation of the Akan text is "Anene says, 'Ananse, let me take a lift, and you also take it at your time.'" The phrase "mfa nsoa" translates to "take a lift" or "give me a lift," and "wo so fa no bere" translates to "you also take it at your time." This implies a reciprocal relationship where Anene is asking Ananse for a favor, promising to return it when Ananse needs it.
+2. Cultural Context: Ananse is a popular character in Akan folklore, known for his wisdom, cunning, and trickery. He is often depicted as a spider and is considered a symbol of survival and resourcefulness. The phrase used here is not an idiom but a direct request for help, with the understanding that the favor will be returned in the future. This reflects the Akan culture's emphasis on community support and reciprocity.
+3. Translation Clarification: The phrase "mfa nsoa" is translated as "give me a lift," which in this context means to provide help or assistance. The phrase "wo so fa no bere" is translated as "you can also take it when you need it," indicating that the favor will be returned when Ananse is in need. The use of the name "Ananse" in the sentence is a cultural reference to the Akan folklore character, symbolizing a person who is wise and resourceful.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said, "Is it because of your wealth that you call me a fool?"
+1. Literal Translation Mapping: The Akan sentence "Ananse see, " So' ho, na me na wo bu me 'kwasea?" literally translates to "Ananse said, "Your wealth, is it why you insult me 'fool'?" The actual meaning of the sentence is that Ananse is questioning someone if they are calling him a fool because they are wealthy. 
+2. Cultural Context: Ananse is a character from Akan folklore, often depicted as a spider and is known for his wisdom and trickery. The term 'kwasea' is an insult in Akan, meaning 'fool' or 'idiot'. The phrase "So' ho" refers to wealth or riches. This sentence could be from a story or conversation where Ananse feels insulted by someone wealthier than him.
+3. Translation Clarification: The phrase "So' ho" is translated as 'your wealth', and "me na wo bu me 'kwasea'" is translated as 'is it why you call me a fool'. The word 'kwasea' is a direct insult, translated as 'fool' or 'idiot'. The phrase "na me na wo bu me" is a question phrase, asking 'is it why you'. The overall sentence is a question from Ananse, asking if the person's wealth is the reason they are insulting him.</t>
+  </si>
+  <si>
+    <t>English Translation: And he gave up.
+1. Literal Translation Mapping: The Akan phrase "Na ofa soaye" literally translates to "And he gave up". The verb "ofa" means "gave" and "soaye" means "up". The conjunction "na" means "and". The literal translation connects with the actual meaning of the sentence as it signifies the action of someone ceasing to continue with an activity or effort.
+2. Cultural Context: There are no specific idioms, references, or cultural aspects present in this line. It is a straightforward phrase that can be used in various contexts, depending on the situation or the activity that the person has given up.
+3. Translation Clarification: The phrase "Na ofa soaye" directly translates to "And he gave up". The verb "ofa" maps to "gave" in English, "soaye" maps to "up", and "na" maps to "and". There are no cultural or idiomatic meanings that need to be explained in this translation as it is a direct and literal translation from Akan to English.</t>
+  </si>
+  <si>
+    <t>English Translation: The bird flew late and it opened.
+1. Literal Translation Mapping: The literal translation of "Anene dii akyire na o'pene" is "The bird flew late and it opened." However, the actual meaning of this sentence is "It's never too late to make amends or correct a mistake." The bird flying late and opening is a metaphor for someone taking action, even if it's later than expected or ideal.
+2. Cultural Context: This is a common Akan proverb used to encourage people not to give up, even if they feel they've missed their opportunity. The bird in the proverb symbolizes an individual, while its flight represents the actions or decisions of that individual. The opening refers to the opportunity or the result of the action. 
+3. Translation Clarification: The phrase "dii akyire" literally translates to "flew late," but in the context of the proverb, it refers to someone taking action or making a decision later than expected. The word "o'pene" literally means "it opened," but in this context, it refers to the opportunity or result that comes from the action or decision. Therefore, the faithful English translation of this proverb would be "It's never too late to make amends or correct a mistake."</t>
+  </si>
+  <si>
+    <t>English Translation: We came home, Anene said, "Give me some help, you've taken it for a long time."
+1. Literal Translation Mapping: The literal translation of the Akan text is "We came home, Anene said, 'Give me some help, you've taken it for a long time.'" The actual meaning of the sentence is that Anene is asking for help because the person addressed has been in possession of something for a long time. 
+2. Cultural Context: The phrase "Ma me mmeyo nsoa, na w'afa no bere" is a common expression in Akan culture. It is often used when someone has been in possession of something for a long time and another person is asking for it back or asking for help with it. This could be a physical object, a responsibility, or even a role in a community or family. 
+3. Translation Clarification: The phrase "Ma me mmeyo nsoa" translates literally to "Give me some help." In this context, it is a polite way of asking for assistance or for something to be returned. The phrase "na w'afa no bere" translates literally to "you've taken it for a long time." This is a polite way of saying that the person addressed has been in possession of something for a long time. The overall meaning of the sentence is that Anene is asking for help or for something to be returned because the person addressed has been in possession of it for a long time.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said, "It's not every day that is good for me, so take advantage of it now."
+1. Literal Translation Mapping: The literal translation of the Akan text is "Ananse says, 'Not every day is good for me, so take it from the top now.'" The phrase "Dabi da ma me nyo" translates to "Not every day is good for me," which is a way of saying that not all days are favorable or successful. The phrase "na wo so fa no bere" translates to "so take it from the top now," which is a way of advising someone to seize the opportunity when it presents itself. 
+2. Cultural Context: Ananse is a popular character in Akan folklore. He is often depicted as a trickster who uses his intelligence and cunning to get out of difficult situations. This saying is a reflection of Ananse's character, as it suggests that even he, known for his cleverness, has days when things don't go his way. Therefore, it's important to seize opportunities when they arise.
+3. Translation Clarification: The phrase "Dabi da ma me nyo" is a common Akan saying that is used to express the idea that not all days are successful or favorable. In English, this concept is often expressed with the phrase "Not every day is a good day." The phrase "na wo so fa no bere" is a way of advising someone to seize the opportunity when it presents itself. In English, this concept is often expressed with the phrase "take advantage of it now." The use of the name "Ananse" in the sentence is a cultural reference to the popular Akan folklore character known for his intelligence and cunning.</t>
+  </si>
+  <si>
+    <t>English Translation: And Anene always goes to the farm to open it.
+1. Literal Translation Mapping: The literal translation of the Akan text is "And Anene always goes to the farm to open it." In this context, "open" is used to mean "prepare" or "start work on." So, the sentence could also be understood as "And Anene always goes to the farm to start work on it."
+2. Cultural Context: In Akan culture, farming is a common occupation and a significant part of life. The phrase "go to the farm to open it" is a common expression used to describe the act of going to the farm to start the day's work. This could involve clearing the land, planting seeds, or tending to crops.
+3. Translation Clarification: The phrase "ko daa ayeya" literally translates to "always goes." This phrase is used to express a habitual action or routine. The word "o'pene" is a contraction of "o" (he/she) and "pene" (open). In this context, "open" is used metaphorically to mean "prepare" or "start work on." Therefore, the phrase "o'pene" is translated as "to open it," referring to starting work on the farm.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said, "Fool, you claim to be wise, yet you're dead."
+1. Literal Translation Mapping: The Akan sentence literally translates to "Ananse says, 'Fool, you say you know wisdom, but you're dead.'" The phrase "wo se wo nim nyansa" translates to "you say you know wisdom," which is a way of saying "you claim to be wise" in English. The phrase "na wo' wuo no" translates to "but you're dead," which is used here to imply that despite the person's claim to wisdom, they have met an unfortunate end.
+2. Cultural Context: The character Ananse is a well-known figure in Akan folklore, often depicted as a trickster who uses his wisdom and cunning to overcome his adversaries. The term "Kwasea" is a derogatory term in Akan, often used to refer to someone as a fool or idiot. The phrase "wo se wo nim nyansa" is a common saying in Akan, used to challenge someone's claim to wisdom or knowledge.
+3. Translation Clarification: The phrase "wo se wo nim nyansa" is translated as "you claim to be wise" to capture the idiomatic meaning of the phrase. The term "Kwasea" is translated as "fool" to convey the derogatory nature of the term. The phrase "na wo' wuo no" is translated as "yet you're dead" to convey the irony of the situation, where the person's claim to wisdom did not prevent their unfortunate end.</t>
+  </si>
+  <si>
+    <t>English Translation: When Ananse finished weaving his web, Anene said, "Let me also weave, I will go to the river and you will take it when it's time."
+1. Literal Translation Mapping: The literal translation of the Akan text is: "Ananse finished weaving, Anene said, "Let me also weave, I will go to the river and you will take it when it's time." The actual meaning of the sentence is that Anene is asking Ananse to allow him to also weave a web, and he will go to the river and Ananse can take it when it's time. 
+2. Cultural Context: Ananse is a well-known character in Akan folklore. He is often depicted as a spider and is considered the god of all knowledge of stories. He is also known for his wisdom, cunning, and trickery. The act of weaving a web is symbolic of creating something or making plans. Anene is another character in Akan folklore, though not as well-known as Ananse. The river could symbolize a place of gathering or a source of life.
+3. Translation Clarification: The phrase "Ma me mfa nsoa" literally translates to "Let me also weave," but in the context of the story, it means "Allow me to also create or make plans." The phrase "me nko nsuom' na w'afa no bere" literally translates to "I will go to the river and you will take it when it's time," but in the context of the story, it means that Anene will go to the river (a place of gathering or a source of life) and Ananse can take the web (the plans or creation) when it's time.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said, "No, I will take it, and it has been a long time since I had it."
+1. Literal Translation Mapping: The literal translation of the Akan text is "Ananse says, 'No, I will take it, and it has been a long time since I had it.'" The actual meaning of the sentence is that Ananse is expressing his desire to take something that he hasn't had in a long time. 
+2. Cultural Context: Ananse is a character from Akan folklore, often depicted as a spider and known for his wisdom, cunning, and trickery. The phrase "Dabi, na me'de'ko, na w'afa no bere" is not an idiom or cultural reference, but a straightforward expression of desire and longing. 
+3. Translation Clarification: The phrase "Dabi, na me'de'ko, na w'afa no bere" translates literally to "No, I will take it, and it has been a long time since I had it." The word "Dabi" means "No" in Akan, expressing Ananse's refusal or disagreement with something. The phrase "na me'de'ko" means "I will take it," showing Ananse's intention to take something. The phrase "na w'afa no bere" translates to "and it has been a long time since I had it," indicating that Ananse hasn't had this particular thing for a long time. The faithful English translation captures the essence of Ananse's statement, while the reference translation provides a more literal interpretation of the Akan text.</t>
+  </si>
+  <si>
+    <t>English Translation: We are going to fetch water.
+1. Literal Translation Mapping: The literal translation of "Ye'ko duruu nsuo nom'" is "We are going to fetch water". In Akan, "Ye'ko" means "we are going", "duruu" means "to fetch", and "nsuo" means "water". "Nom'" is a contraction of "no mu" which means "in it". However, in this context, it is used to complete the sentence and doesn't have a direct English translation. 
+2. Cultural Context: Fetching water is a common activity in many parts of Ghana where the Akan language is spoken. It is often a communal activity, especially in rural areas where access to running water may be limited. This phrase could be used in a variety of contexts, such as a group of friends planning to fetch water together, or a parent instructing their child to fetch water.
+3. Translation Clarification: The phrase "Ye'ko duruu nsuo nom'" is a straightforward sentence with no idiomatic or cultural meanings beyond the literal translation. The contraction "nom'" is a common feature in Akan language, often used to complete sentences or phrases. In this case, it doesn't have a direct English translation but is necessary for the sentence to be grammatically correct in Akan.</t>
+  </si>
+  <si>
+    <t>English Translation: Anene said, "Father Ananse, you have a creature in the river that makes me hold my breath when I see it, and when the creature bites me, you take its death."
+1. Literal Translation Mapping: The literal translation of the Akan text is, "Anene says, 'Father Ananse, there's a creature in your river that makes me hold my breath when I see it, and when the creature bites me, you take its death.'" The actual meaning of the sentence is that Anene is expressing fear or discomfort towards a creature in the river owned by Father Ananse. The phrase "you take its death" is a metaphorical way of saying that Father Ananse is responsible for the harm the creature causes.
+2. Cultural Context: The character "Agya Ananse" or "Father Ananse" is a popular figure in Akan folklore. Ananse is often depicted as a trickster who uses his intelligence and deceit to get what he wants. The creature in the river could be a reference to one of Ananse's tricks or schemes. The river is a common setting in Akan folklore, often associated with danger or mystery.
+3. Translation Clarification: The phrase "aboa bi wo nsuom'" literally translates to "a creature in your river," but in this context, it refers to something that Father Ananse owns or is responsible for. The phrase "ma me nsim' me mfa nsoa yi nnum'" literally translates to "makes me hold my breath," which is a way of expressing fear or discomfort. The phrase "w'afa ne wuo" literally translates to "you take its death," which is a metaphorical way of saying that Father Ananse is responsible for the harm the creature causes.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse says, "Ah! You call me a good fool, me, I pretend to be dead and when you come to mourn me, you die."
+1. Literal Translation Mapping: The literal translation of the Akan text is quite close to the actual meaning of the sentence. Ananse, a character from Akan folklore, is responding to someone who has called him a 'good fool'. He retorts that he can pretend to be dead, and when the person comes to mourn him, they will die. This is a metaphorical way of saying that he can outsmart the person who is trying to belittle him.
+2. Cultural Context: Ananse is a well-known character in Akan folklore, often depicted as a trickster who uses his wit and cunning to outsmart others. The phrase 'kwasea pa' is an Akan idiom that translates to 'good fool', and is often used as a term of endearment or teasing. However, in this context, it is used in a derogatory manner. The concept of pretending to be dead and causing the death of the person who comes to mourn is a metaphorical representation of Ananse's cunning and ability to turn the tables on those who underestimate him.
+3. Translation Clarification: The phrase 'me de'ko gum' na oka me a' translates literally to 'I pretend to be dead and when you come to mourn me'. This is a metaphorical way of saying that Ananse can outsmart the person who is trying to belittle him. The phrase 'w'afa no wuo' translates literally to 'you die', which in this context means that the person who underestimates Ananse will face negative consequences. The overall translation maintains the cultural and idiomatic meanings of the original Akan text.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse took the gift and went home, and they came home.
+1. Literal Translation Mapping: The literal translation of the Akan text is "Ananse took the gift and went to chew, and they came home." In Akan, the phrase "ko guum'" literally means "went to chew" but in this context, it is used to mean "went home". This is because in Akan culture, it is common to chew food at home. Therefore, the phrase "ko guum'" is used to represent the act of going home. The phrase "ye'baa 'fie" literally translates to "they came home". This phrase is used to indicate that Ananse and the others returned home.
+2. Cultural Context: The character Ananse is a popular figure in Akan folklore. He is often portrayed as a trickster who uses his intelligence and cunning to outwit others. The act of giving gifts is also a common practice in Akan culture, especially during celebrations or as a sign of respect and appreciation. 
+3. Translation Clarification: The phrase "de nsoa no" translates to "took the gift". In this context, "nsoa" refers to a gift or present. The word "de" is a verb that means "took". The phrase "ko guum'" is a colloquial expression that means "went home". The phrase "na ye'baa 'fie" translates to "and they came home". The word "na" is a conjunction that means "and", "ye'baa" is a verb that means "they came", and "'fie" is a noun that means "home". Therefore, the faithful translation of the Akan text is "Ananse took the gift and went home, and they came home."</t>
+  </si>
+  <si>
+    <t>English Translation: Tomorrow, we will go and fetch the donation, and then we will share the thoughts.
+1. Literal Translation Mapping: The literal translation of the Akan text is "Tomorrow, we will go fetch the donation, and then we will share two thoughts." The phrase "Adeekyeye, ye'ko fwee nsoa no" translates to "Tomorrow, we will go fetch the donation." The phrase "na ayi adwene mmienu" translates to "and then we will share two thoughts." The actual meaning of the sentence is that they will go and get the donation tomorrow, and then they will discuss or deliberate on something.
+2. Cultural Context: The Akan people are known for their communal living and decision-making process. The phrase "ayi adwene mmienu" which translates to "we will share two thoughts" is a cultural way of saying they will have a discussion or deliberation. It signifies the importance of consensus in their culture. The "nsoa" or donation could be a contribution from a member of the community or an outsider for the benefit of the community.
+3. Translation Clarification: The phrase "ye'ko fwee nsoa no" literally translates to "we will go fetch the donation." In this context, "fetch" is used to mean "collect" or "receive." The phrase "ayi adwene mmienu" literally translates to "we will share two thoughts." However, in this context, it means they will have a discussion or deliberation. The number "two" in "adwene mmienu" is not to be taken literally but signifies a back-and-forth exchange of ideas, typical in a discussion or deliberation.</t>
+  </si>
+  <si>
+    <t>English Translation: Anene said, "Ananse, take these two, and tomorrow they will come and take us to the farm, and I will also go."
+1. Literal Translation Mapping: The literal translation of the sentence is "Anene said, 'Ananse, you take these two, and tomorrow they will come and take us to the farm, and I will also go.'" The actual meaning of the sentence is that Anene is instructing Ananse to take two unspecified items or people, and that they will return the next day to accompany them to the farm, where Anene will also be present.
+2. Cultural Context: The names Anene and Ananse are common in Akan culture. Ananse is a well-known character in Akan folklore, often depicted as a trickster spider. The reference to the farm suggests a rural, agricultural setting, which is common in many Akan communities. The act of going to the farm is a common daily activity in these communities, and it often involves the whole family or community.
+3. Translation Clarification: The phrase "wo fa mmienu yi" literally translates to "you take these two," but without context, it's unclear what "these two" refers to. It could be two people, two tools, two animals, etc. The phrase "okyena ye'beba na ayi nnan" literally translates to "tomorrow they will come and take us," suggesting that the two entities taken by Ananse will return the next day to accompany them to the farm. The phrase "me so m'afa" literally translates to "I will also go," indicating that Anene will also be present at the farm.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said, "Ah! This servant, you call me 'a good fool'; you take these two, and tomorrow I will take the rest."
+1. Literal Translation Mapping: The literal translation of the Akan text is: "Ananse says, 'Ah! This servant, you call me 'good fool'; you take these two, and tomorrow on my head I have taken the rest.'" The phrase 'on my head' is a literal translation of 'me so' which is a common Akan expression used to denote responsibility or burden. In this context, it means that Ananse will take the responsibility of getting the rest of whatever is being referred to.
+2. Cultural Context: The character Ananse is a well-known figure in Akan folklore, often depicted as a trickster. The term 'akoa' literally translates to 'servant' but can also be used colloquially to refer to a person in a demeaning way. The phrase 'kwasea pa' translates to 'good fool', which is an oxymoron used sarcastically to call someone a fool in a somewhat polite manner.
+3. Translation Clarification: The phrase 'wo bu me 'kwasea pa' is translated as 'you call me a good fool'. This is a sarcastic remark made by Ananse, implying that he is being underestimated or treated as a fool. The phrase 'wo fa mmienu yi' is translated as 'you take these two', which refers to a certain quantity of something being taken. The phrase 'na me so okyena m'afa nnan no' is translated as 'and tomorrow I will take the rest', indicating that Ananse plans to take the remaining quantity of something the next day.</t>
+  </si>
+  <si>
+    <t>English Translation: The bird has flown away.
+1. Literal Translation Mapping: The literal translation of "Anene faye" is "Bird has flown". In English, we would typically say "The bird has flown away" to give it a complete meaning. The word "Anene" translates to "Bird" and "faye" translates to "has flown". 
+2. Cultural Context: This phrase is often used in Akan culture to indicate that someone has left or departed, similar to the English idiom "has flown the coop". It can also be used metaphorically to indicate that an opportunity has been missed or that time has passed.
+3. Translation Clarification: The phrase "Anene faye" is a simple statement in Akan, but carries a deeper meaning in context. The word "Anene" (bird) is used metaphorically to represent a person or opportunity, and "faye" (has flown) indicates departure or loss. Therefore, while the literal translation is "The bird has flown away", the phrase could also be understood as "He/She has left" or "The opportunity has passed" depending on the context.</t>
+  </si>
+  <si>
+    <t>English Translation: Tomorrow, we will go and farm.
+1. Literal Translation Mapping: The literal translation of the Akan text is "Tomorrow, we will go and farm." The phrase "Adeekyeye" translates to "Tomorrow," "ye'koye" translates to "we will go," and "na ayi nnan" translates to "and farm." The sentence structure in Akan is similar to English, making the translation straightforward.
+2. Cultural Context: The sentence is a simple statement about a plan to farm the next day. Farming is a significant part of many Akan communities' livelihoods, and it's common to discuss plans related to it. There are no idioms or cultural references in this sentence.
+3. Translation Clarification: The phrase "ye'koye na ayi nnan" is a common way to express future plans in Akan. "Ye'koye" is a future tense verb meaning "we will go," and "na ayi nnan" is a verb phrase meaning "and farm." The conjunction "na" is used to connect the two actions, similar to the English "and." The translation is faithful to the original Akan sentence, with no idiomatic or cultural meanings that need further explanation.</t>
+  </si>
+  <si>
+    <t>English Translation: Anene said, "Take this money, tomorrow we will go to the market, and I will buy a gun."
+1. Literal Translation Mapping: The literal translation of the Akan text is: "Anene said, 'You take this money, and tomorrow we will come and buy a gun, and I will hold it.'" The actual meaning of the sentence is that Anene is giving someone money to buy a gun the next day. The phrase "me so m'afa" literally translates to "I will hold it," but in this context, it means "I will buy it."
+2. Cultural Context: The cultural context of this sentence is that in Akan society, it is common for people to plan their activities ahead of time, especially when it involves buying something significant like a gun. The phrase "na okyena ye'beba na ayi nwotwe" is a common way of expressing future plans in Akan. 
+3. Translation Clarification: The phrase "Wo fa nnan yi" literally translates to "You take this money," but in English, it would be more natural to say "Take this money." The phrase "na okyena ye'beba na ayi nwotwe" literally translates to "and tomorrow we will come and buy a gun," but in English, it would be more natural to say "tomorrow we will go to the market and buy a gun." The phrase "na me so m'afa" literally translates to "and I will hold it," but in this context, it means "I will buy it."</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said, "If you call me a fool, take this ladder, and I will climb it tomorrow when I have a headache."
+1. Literal Translation Mapping: The literal translation of the Akan text is, "Ananse says, 'You call me 'fool', you take this ladder, and tomorrow when my head hurts, I will climb." The actual meaning of the sentence is that Ananse is responding to someone who has insulted him by calling him a fool. He sarcastically suggests that they take a ladder, implying that he will only do the foolish act they expect of him when he is not in his right senses (i.e., when he has a headache).
+2. Cultural Context: Ananse is a popular character in Akan folklore, known for his wisdom and trickery. The term 'kwasea' is a derogatory term in Akan, meaning 'fool'. The act of climbing a ladder when one has a headache is seen as a foolish act, as it could lead to a fall or further complications. This is a form of sarcasm and irony, common in Akan conversations.
+3. Translation Clarification: The phrase "Wo bu me 'kwasea'" translates to "You call me a fool". The term 'kwasea' is a derogatory term, and its use here indicates an insult. "Wo fa nnan yi" translates to "take this ladder", which is a direct command. "Na me so okyena m'afa nwotwe" translates to "and tomorrow when my head hurts, I will climb". The use of 'okyena' (tomorrow) and 'm'afa nwotwe' (I have a headache) is a way of saying that he will only do the foolish act when he is not in his right senses. The overall translation maintains the sarcastic tone of the original Akan text.</t>
+  </si>
+  <si>
+    <t>English Translation: The day is breaking, and we are casting nets.
+1. Literal Translation Mapping: The literal translation of "Adeekyeye ye'koye, na ayi nwotwe" is "Day is breaking, and we are casting nets." This phrase is often used to signify the start of a new day and the beginning of work or a task. The phrase "Adeekyeye ye'koye" literally translates to "Day is breaking," which signifies the start of a new day. The phrase "na ayi nwotwe" literally translates to "and we are casting nets," which signifies the start of work or a task.
+2. Cultural Context: This phrase is often used in the Akan culture, which is a matrilineal society in Ghana and the Ivory Coast. The Akan people are known for their fishing activities, and casting nets is a common task in the early morning. Therefore, this phrase is often used to signify the start of a new day and the beginning of work. It is also used metaphorically to signify the start of a new endeavor or task.
+3. Translation Clarification: The phrase "Adeekyeye ye'koye" is translated as "The day is breaking," which is a common English phrase used to signify the start of a new day. The phrase "na ayi nwotwe" is translated as "and we are casting nets," which is a literal translation of the Akan phrase. However, in the cultural context, it signifies the start of work or a task. Therefore, the faithful English translation of this phrase is "The day is breaking, and we are casting nets."</t>
+  </si>
+  <si>
+    <t>English Translation: Anene said, "Go, and tomorrow come to my place, I have a funeral."
+1. Literal Translation Mapping: The literal translation of the Akan text is "Anene says, 'Go, and tomorrow come to my place, I have a funeral.'" The actual meaning of the sentence is that Anene is inviting someone to attend a funeral at his place the next day. 
+2. Cultural Context: In Akan culture, funerals are significant social events that involve the entire community. They are not only occasions for mourning, but also for celebration of the life of the deceased, reunion of family and friends, and affirmation of social bonds. The phrase "me so m'afa dunsia" (I have a funeral) is a polite way of inviting someone to a funeral, which is considered a communal responsibility and an act of respect towards the deceased and their family.
+3. Translation Clarification: The phrase "Fa, na okyena me so m'afa dunsia" literally translates to "Go, and tomorrow come to my place, I have a funeral." The word "Fa" means "go," but in this context, it is used as a polite way of ending a conversation or parting ways. The phrase "okyena me so m'afa dunsia" literally means "tomorrow come to my place, I have a funeral," with "okyena" meaning "tomorrow," "me so" meaning "my place," and "m'afa dunsia" meaning "I have a funeral." The phrase "m'afa dunsia" is a polite and indirect way of saying "I am hosting a funeral," which reflects the Akan culture's emphasis on politeness and respect in communication.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said, "It is me you call a fool, yet you take a gun, and tomorrow I will take a stick."
+1. Literal Translation Mapping: The literal translation of the Akan text is, "Ananse says, 'I am the one you call a fool, you take a gun, and tomorrow I will take a stick.'" The actual meaning of the sentence is that Ananse is being called a fool by someone, but he is warning them that they may be the actual fool for resorting to violence (symbolized by the gun), while he will respond with less aggression (symbolized by the stick).
+2. Cultural Context: Ananse is a character from Akan folklore, often depicted as a trickster who uses his intelligence to overcome his adversaries. The use of a gun and a stick in this context is symbolic. The gun represents violence or aggression, while the stick represents a less aggressive approach. This could be interpreted as a critique of those who resort to violence instead of using their intellect to solve problems.
+3. Translation Clarification: The phrase "Me na wo bu me 'kwasea" translates literally to "It is me you call a fool." In the Akan culture, calling someone a 'kwasea' (fool) is a serious insult. The phrase "wo so fa nwotwe" translates to "you take a gun," symbolizing a violent or aggressive approach. The phrase "na okyena m'afa dunsia" translates to "and tomorrow I will take a stick," symbolizing a less aggressive or more peaceful approach. The use of "tomorrow" could also imply that Ananse is planning a future response or strategy.</t>
+  </si>
+  <si>
+    <t>English Translation: It was after he had finished helping that Anene said to Ananse, "Go and bring the dead body of the helper, and if you refuse, a certain curse, darkness, will befall you, so your father Ananse, take this thought and bring the dead helper to me."
+1. Literal Translation Mapping: The literal translation of the sentence is quite close to the actual meaning. The phrase "Efei na nsoa no asee" translates to "It was after he had finished helping", which sets the context of the conversation. "Ko fa nsoa funu bra" translates to "Go and bring the dead body of the helper", which is a direct command given by Anene to Ananse. The phrase "na wo ton a, bafua bi'a, ntanu" translates to "and if you refuse, a certain curse, darkness", which is a warning or threat given to Ananse. The last part of the sentence "nti wo Agya Ananse gye adwene yi na fa nsoa funu yi ma me" translates to "so your father Ananse, take this thought and bring the dead helper to me", which is a reiteration of the command and the consequence of not following it.
+2. Cultural Context: The characters Anene and Ananse are common in Akan folklore. Ananse is a trickster who often finds himself in difficult situations due to his cunning and deceitful nature. The reference to a curse or darkness befalling Ananse if he refuses to bring the dead body of the helper could be a reflection of the belief in supernatural consequences for disobedience or wrongdoing in Akan culture.
+3. Translation Clarification: The phrase "nsoa funu" translates literally to "dead helper", but in the context of the sentence, it refers to the body of the helper who has died. The term "bafua bi'a, ntanu" translates literally to "a certain curse, darkness", but it could be interpreted as a metaphorical darkness or misfortune that will befall Ananse if he disobeys. The phrase "gye adwene yi" translates to "take this thought", but it could be understood as "consider this" or "heed this warning" in English.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said, "Tomorrow, you go and think about it, while I also go to help with the funeral I have to attend."
+1. Literal Translation Mapping: The literal translation of the Akan text is: "Ananse says, 'Tomorrow, you go and carry the thought, and on my head I will go carry help for the funeral I have taken.'" The phrase "wo ko ton adwene no fa" literally translates to "you go and carry the thought," which means "you go and think about it." The phrase "me so me'ko ton nsoa funu yi m'afa" literally translates to "on my head I will go carry help for the funeral I have taken," which means "I will go to help with the funeral I have to attend."
+2. Cultural Context: The character Ananse is a well-known figure in Akan folklore, often depicted as a trickster who uses his intelligence and cunning to get his way. The reference to a funeral is a common aspect of Akan culture, where funerals are significant social events that require community participation and support.
+3. Translation Clarification: The phrase "ton adwene no fa" is a figurative way of saying "think about it" in Akan. The word "ton" literally means "carry," but in this context, it is used to mean "think." The phrase "ton nsoa funu yi m'afa" is a figurative way of saying "help with the funeral." The word "nsoa" literally means "help," but in this context, it refers to the cultural practice of community members helping out at funerals. The word "funu" means "funeral," and "m'afa" means "I have taken," which in this context means "I have to attend."</t>
+  </si>
+  <si>
+    <t>English Translation: We have come a long way.
+1. Literal Translation Mapping: The literal translation of "Ye'soasoaye koo edwam'" is "We have walked a long journey". In this context, "Ye'soasoaye" means "we have walked", "koo" means "a long", and "edwam'" means "journey". The phrase is used to express the idea that a lot of effort, time, or difficulties have been experienced to reach the current point or situation.
+2. Cultural Context: This phrase is often used in Akan culture to express the idea of perseverance and endurance. It is a common saying that reflects the Akan people's belief in the importance of resilience and determination in overcoming challenges. It can be used in various contexts, such as in conversations about personal experiences, historical events, or societal issues.
+3. Translation Clarification: The phrase "Ye'soasoaye koo edwam'" is translated as "We have come a long way" in English. This translation captures the idiomatic meaning of the Akan phrase, which is about acknowledging the progress made despite the challenges faced. The word "koo" is translated as "a long" in the literal translation, but in the idiomatic translation, it is understood as part of the phrase that means "a long way". Similarly, "edwam'" is translated as "journey" in the literal translation, but in the idiomatic translation, it is understood as part of the phrase that means "come a long way".</t>
+  </si>
+  <si>
+    <t>English Translation: Anene has been lazy; he has lost a lot of money.
+1. Literal Translation Mapping: The literal translation of the Akan text is "It is laziness that Anene has slept; he has lost money greatly." The phrase "Seisei na Anene die nnyina asa" literally translates to "It is laziness that Anene has slept," which means Anene has been lazy. The phrase "onyaa sika bebre" literally translates to "he has lost money greatly," which means he has lost a lot of money. The actual meaning of the sentence is that Anene's laziness has led to a significant financial loss.
+2. Cultural Context: The Akan people are known for their hard work and entrepreneurial spirit. In this culture, laziness is often seen as a vice that leads to poverty or financial loss. This sentence reflects this cultural belief. There are no specific idioms or references in this line.
+3. Translation Clarification: The phrase "Seisei na Anene die nnyina asa" is a metaphorical way of saying that Anene has been lazy. The word "die" in this context does not mean death, but rather it refers to sleep, which is often associated with laziness in many cultures. The phrase "onyaa sika bebre" uses the word "bebre" to emphasize the extent of the financial loss. In English, this is translated as "he has lost a lot of money" to convey the same level of emphasis.</t>
+  </si>
+  <si>
+    <t>English Translation: And so Ananse was mentioned.
+1. Literal Translation Mapping: The Akan phrase "Na aka Ananse" literally translates to "And mentioned Ananse". In English, the more grammatically correct way to say this would be "And so Ananse was mentioned". The actual meaning of the sentence is that the character Ananse has been brought up or mentioned in the conversation or story.
+2. Cultural Context: Ananse is a well-known character in Akan folklore. He is often depicted as a spider and is known for his wisdom, cunning, and trickery. Stories about Ananse are popular in many parts of West Africa and the Caribbean, and they often serve to teach moral lessons.
+3. Translation Clarification: The word "aka" in Akan can be translated to "mentioned" in English. The name "Ananse" is a proper noun and does not have a direct English translation, but it refers to a specific character in Akan folklore. The phrase "Na aka Ananse" is a simple statement that Ananse has been mentioned, but the cultural significance of Ananse adds depth to this statement.</t>
+  </si>
+  <si>
+    <t>English Translation: And Anene told him, "Take this dead body away, and we will bury it."
+1. Literal Translation Mapping: The literal translation of the Akan text is "And Anene said to him, 'Take this dead body go far, and we will bury it.'" The phrase "Fa nsoa funu yi ko kyin" literally translates to "Take this dead body go far," which in proper English would be "Take this dead body away." The phrase "na ye'beto" literally translates to "and we will bury it."
+2. Cultural Context: The Akan people are a group of West African ethnicities primarily in Ghana and Ivory Coast. In Akan culture, death and burial rites are significant and are treated with great respect. The dead are often buried in the family's compound. The phrase "Fa nsoa funu yi ko kyin" is a directive to remove the body, possibly from the home or a public space, to prepare for burial. This reflects the cultural importance of handling the deceased in a respectful and appropriate manner.
+3. Translation Clarification: The phrase "Fa nsoa funu yi ko kyin" is a directive to remove the body. The word "nsoa" translates to "take" and "funu" translates to "dead body." The phrase "ko kyin" translates to "go far," but in this context, it means to remove or take away. The phrase "na ye'beto" translates to "and we will bury it." The word "ye'beto" is a future tense verb that translates to "we will bury." The cultural and idiomatic meaning of the sentence is a directive to remove the body in preparation for burial, a significant cultural practice among the Akan people.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said to himself; he said, "I am also mourning the dead!"
+1. Literal Translation Mapping: The Akan sentence "Ananse maa so; osee, " Me ton nsoa funu o!" literally translates to "Ananse said to himself; he said, "I am also mourning the dead!" The phrase "Ananse maa so" means "Ananse said to himself", "osee" is a repetition of "he said", and "Me ton nsoa funu o" means "I am also mourning the dead". The repetition of "he said" is a common feature in Akan storytelling to emphasize the speaker and the action of speaking.
+2. Cultural Context: Ananse is a well-known character in Akan folklore. He is often portrayed as a trickster who uses his intelligence and deceit to get what he wants. The act of mourning the dead is a significant cultural practice in Akan society, involving specific rituals and expressions of grief. This sentence could be part of a larger story where Ananse is pretending to mourn to achieve some hidden goal.
+3. Translation Clarification: The phrase "Me ton nsoa funu o" is a direct translation of "I am also mourning the dead". However, the cultural significance of mourning in Akan society may not be fully conveyed in the English translation. The phrase could also imply that Ananse is sharing in the communal grief or participating in the mourning rituals, which is not explicitly stated in the English translation. The use of "also" suggests that Ananse is joining others in mourning, which could be a strategic move on his part in the context of a story.</t>
+  </si>
+  <si>
+    <t>English Translation: And the chief was angry, and he said, "Where does this person come from, that you should call him my children's teacher?" Ananse was afraid.
+1. Literal Translation Mapping: The literal translation of the Akan text is: "And the chief was burning, and he said, "This person, where is he from, that you should call him my children's teacher?" Ananse was afraid." The phrase "odekuro teye" literally translates to "the chief was burning," which is an idiomatic expression in Akan language that means the chief was angry. The phrase "Akoa yi firi he" literally translates to "this person, where is he from," which is a rhetorical question expressing the chief's disbelief and disapproval. The phrase "Ananse koye" literally translates to "Ananse was afraid," indicating Ananse's reaction to the chief's anger.
+2. Cultural Context: The Akan text refers to Ananse, a character from Akan folklore who is often portrayed as a trickster. In this context, Ananse seems to have proposed someone as a teacher for the chief's children, which the chief disapproves of. This reflects the Akan culture's emphasis on the importance of a person's background and reputation, especially in roles that involve the upbringing of children.
+3. Translation Clarification: The phrase "odekuro teye" is translated as "the chief was angry" instead of the literal "the chief was burning" to convey the idiomatic meaning of anger in English. The phrase "Akoa yi firi he" is translated as "Where does this person come from" to maintain the rhetorical nature of the question in English. The phrase "mo nko fre no mma no mmera" is translated as "that you should call him my children's teacher" to convey the chief's disapproval of the person Ananse has proposed as a teacher. The phrase "Ananse koye" is translated directly as "Ananse was afraid" to convey Ananse's fear in response to the chief's anger.</t>
+  </si>
+  <si>
+    <t>English Translation: The chief said, "You claim that we are fools for living in this town; then, have you considered this, your friend has also died, and has his death made us fools?"
+1. Literal Translation Mapping: The literal translation of the Akan text is: "The chief says, 'You say that we are fools because we live in this town; then, your friend has also thought about this, hasn't he seen, and hasn't his death also made us fools for him?'" The actual meaning of the sentence is a rhetorical question from the chief, challenging the person who criticized their way of life. The chief is pointing out that even the person's friend, who presumably shared the same critical view, has died just like anyone else, questioning whether this death has made them fools.
+2. Cultural Context: The Akan people are a large ethnic group of West Africa, primarily residing in Ghana and Ivory Coast. The term "Odekuro" is a title for a chief or a leader in the Akan society. The chief is a respected figure who often speaks on behalf of the community. The phrase "gye di se yen a ye'wo kurom' ha ye'ye nkwasea" is a way of saying that someone is criticizing or looking down on their way of life. The reference to death is a reminder of the inevitability of mortality, regardless of one's opinions or lifestyle.
+3. Translation Clarification: The phrase "Wo gye di se yen a ye'wo kurom' ha ye'ye nkwasea" literally translates to "You say that we are fools because we live in this town." However, in the context, it means that the person is criticizing or looking down on their way of life. The phrase "wo yonko beton adwene yi, w'anhu, na w'abe-ton nsoa funu ama yen?" literally translates to "your friend has also thought about this, hasn't he seen, and hasn't his death also made us fools for him?" In the context, it is a rhetorical question from the chief, challenging the person's criticism by pointing out the inevitability of death, regardless of one's opinions or lifestyle.</t>
+  </si>
+  <si>
+    <t>English Translation: The chief said, "Bless your children."
+1. Literal Translation Mapping: The Akan phrase "Odekuro see" translates directly to "The chief said" in English. "Mo mmo' no" is a blessing in Akan, which translates to "Bless your children" in English. The literal translation connects with the actual meaning of the sentence as it is a direct statement from a chief, who is a respected figure in the Akan community, giving a blessing to someone's children.
+2. Cultural Context: In Akan culture, chiefs are highly respected figures who hold significant influence and authority. Their words, especially blessings, are taken very seriously. The phrase "Mo mmo' no" is a common blessing in Akan culture, often given by elders or people of high status to younger ones or those they care about. It is a wish for prosperity, good health, and success for the children of the person being addressed.
+3. Translation Clarification: The phrase "Odekuro see" directly translates to "The chief said", with "Odekuro" meaning "chief" and "see" meaning "said". "Mo mmo' no" is a blessing phrase in Akan, with "Mo" meaning "your", "mmo'" meaning "children", and "no" is a particle used for emphasis. The phrase "Mo mmo' no" is translated as "Bless your children", which is a faithful translation of the Akan blessing. The cultural or idiomatic meaning is explained in the cultural context, where it is a common blessing given by elders or people of high status in Akan culture.</t>
+  </si>
+  <si>
+    <t>English Translation: And we caught him.
+1. Literal Translation Mapping: The Akan phrase "Na ye'fwee no" literally translates to "And we caught him". The verb "fwee" means "to catch" in Akan. The pronoun "no" refers to "him". The conjunction "na" means "and". So, putting it all together, the sentence means "And we caught him".
+2. Cultural Context: There are no specific idioms, references, or cultural aspects present in this line. It is a straightforward sentence that could be used in a variety of contexts, such as storytelling, reporting an event, or in conversation.
+3. Translation Clarification: The phrase "Na ye'fwee no" is a simple sentence in Akan, with a clear and direct translation in English. The verb "fwee" translates directly to "caught" in English. The pronoun "no" is used in Akan to refer to a third person singular, similar to "him" in English. The conjunction "na" is used in the same way as "and" in English, to connect phrases or sentences. There are no cultural or idiomatic meanings that need to be explained in this translation.</t>
+  </si>
+  <si>
+    <t>English Translation: And Anene said, "Ananse, you see, your face is pale; you say you like the fool and his work is done, you see that it is you who are the fool."
+1. Literal Translation Mapping: The literal translation of the Akan text is, "And Anene said, 'Ananse, you see, your face is pale; you say you like the fool and his work is done, you see that it is you who are the fool.'" The phrase "Ananse, you see, your face is pale" is a way of saying that Ananse is not looking well or is in a bad situation. The phrase "you say you like the fool and his work is done" is a way of saying that Ananse claims to appreciate the fool, but the fool's work is already completed. The phrase "you see that it is you who are the fool" is a way of saying that Ananse is the real fool in the situation.
+2. Cultural Context: Ananse is a character from Akan folklore, often depicted as a trickster spider. In this context, Anene is calling Ananse a fool, suggesting that Ananse's tricks have backfired on him. The phrase "your face is pale" is an idiomatic expression in Akan, often used to indicate that someone is in a difficult or troubling situation.
+3. Translation Clarification: The phrase "Ananse w'ahu, w'ani awu" literally translates to "Ananse, you see, your face is pale," but in the cultural context, it means that Ananse is in a difficult situation. The phrase "wo se wo'pe 'kwasea ne no aye adwuma, w'ahu se wo'a na wo ye 'kwasea" literally translates to "you say you like the fool and his work is done, you see that it is you who are the fool," but in the cultural context, it means that Ananse is the real fool because his tricks have backfired on him.</t>
+  </si>
+  <si>
+    <t>English Translation: The Ananse stories I have told, whether they are good or not, take some and leave some.
+1. Literal Translation Mapping: The literal translation of the Akan text is "The Ananse stories I have told, if it's good, if it's not good, take some, and leave some." This is a common way of ending Ananse stories in the Akan culture. The speaker is essentially saying that the listeners should take what they find useful from the stories and leave what they don't find useful.
+2. Cultural Context: Ananse stories are a significant part of Akan culture. They are folktales that feature Ananse, a trickster spider character, and are used to teach moral lessons. The phrase "M'anansesem a metooye yi, se eye de o, se ennye de o, momfa bi nko, na momfa bi mmera" is a traditional way of concluding these stories, encouraging listeners to take away what they find valuable.
+3. Translation Clarification: The phrase "se eye de o, se ennye de o" literally translates to "if it's good, if it's not good," but in this context, it means "whether they are good or not." The phrase "momfa bi nko, na momfa bi mmera" literally translates to "take some, and leave some," which is a way of saying "take what you find useful and leave what you don't." This phrase is used to encourage critical thinking and personal interpretation of the stories.</t>
   </si>
   <si>
     <t>GPT-3.5-turbo</t>
   </si>
   <si>
-    <t>Akan Text: SE 'YOYE A NYANSA BA OMANM'
-English Translation: It is the wise child who knows the mother's hand.
-Expanded Footnote:
-1. Literal Translation Mapping: "Se" means "it is," "yoye" means "wise," "a" means "who," "nyansa" means "knowledge," "ba" means "child," and "omanm" means "mother's hand." So, the literal translation would be "It is the wise child who knows the mother's hand."
-2. Cultural Context: This Akan proverb emphasizes the importance of wisdom and understanding in recognizing and appreciating a mother's care and guidance. In Akan culture, mothers are highly revered and play a crucial role in the upbringing and nurturing of their children. The proverb suggests that a wise child is one who recognizes and values the love, support, and sacrifices made by their mother.
-3. Translation Clarification: The phrase "nyansa ba" is a common expression in Akan culture to refer to a wise or intelligent child. The word "nyansa" specifically conveys the idea of knowledge or wisdom, while "ba" means child. The phrase "omanm" refers to the mother's hand, symbolizing her care, protection, and guidance. In English, the translation "It is the wise child who knows the mother's hand" captures the essence of the proverb, highlighting the significance of wisdom in understanding and appreciating a mother's role in a child's life.</t>
-  </si>
-  <si>
-    <t>Translation: They say Kwaku Ananse is a spider, but all wisdom is in his head, and he uses it to deceive people.
+    <t>Akan Text: Ye' nse se, nse se o
+English Translation: We are not saying, we are not saying it.
+Expanded Footnote:
+1. Literal Translation Mapping: "Ye'" means "we are," "nse" means "not," "se" means "saying," and "o" is a particle used for emphasis. So, the literal translation would be "We are not saying, we are not saying it."
+2. Cultural Context: This Akan line is often used to express denial or rejection of an accusation or statement. It is a way of emphasizing that the speaker is not admitting to or agreeing with what has been said.
+3. Translation Clarification: The repetition of "nse se" (not saying) in the Akan line adds emphasis to the denial. The use of "o" at the end of the sentence intensifies the statement. In English, this could be translated as "We are not saying, we are not saying it" to capture the emphasis and denial conveyed in the original Akan line.</t>
+  </si>
+  <si>
+    <t>Akan Text: ANANSE SEE O'KO PE 'KWASEA, NANSO ONO ARA NA OYEE 'KWASEA
+English Translation: The spider says it's foolish, but its own body is also foolish.
 Footnote:
-1. Literal Translation Mapping: "YE se Kwaku Ananse na owo ho, na oprapraa nyansa nnyina boaa­ 'no na ode guu toam'" translates to "They say Kwaku Ananse is a spider, but all wisdom is in his head, and he uses it to deceive people." The literal translation highlights the idea that despite being referred to as a spider, Kwaku Ananse possesses wisdom in his head that he uses for deceitful purposes.
-2. Cultural Context: Kwaku Ananse is a popular character in Akan folklore known for his cunning and trickery. In this context, the line emphasizes that despite his outward appearance as a spider, his true power lies in his intellect and ability to outsmart others. The reference to Kwaku Ananse reflects the cultural value placed on intelligence and cleverness in navigating challenges.
-3. Translation Clarification: The phrase "oprapraa nyansa nnyina boaa" translates to "all wisdom is in his head," highlighting the belief that Kwaku Ananse's intelligence is his most valuable asset. The term "guu toam" translates to "deceive people," indicating that he uses his wisdom to trick or manipulate others. This translation captures the essence of the Akan saying, emphasizing the deceptive nature of Kwaku Ananse's actions despite his outward appearance as a spider.</t>
-  </si>
-  <si>
-    <t>English Translation: The crab does not give birth to a bird, and wisdom is not found in the forest.
-Expanded Footnote:
-1. Literal Translation Mapping: "Ose ode foro dua ako sen so" translates to "The crab does not give birth to a bird," highlighting the idea of dissimilarity or the impossibility of certain things happening. "Na nyansa nnyina asa asase so" translates to "and wisdom is not found in the forest," emphasizing the location where wisdom is not typically expected to be found.
-2. Cultural Context: This Akan proverb uses vivid imagery to convey the message that certain things are not naturally or logically connected. Crabs and birds are two different species, and the forest is not typically associated with wisdom in Akan culture. The proverb serves as a reminder that one should not expect the impossible or look for certain qualities in unlikely places.
-3. Translation Clarification: The phrase "nyansa nnyina" translates to "wisdom is not found," with "nyansa" meaning wisdom and "nnyina" indicating the absence or lack of something. "Asa asase so" translates to "in the forest," with "asa" meaning forest or bush. The phrase "ode foro dua ako sen so" emphasizes the idea of impossibility by stating that a crab cannot give birth to a bird, highlighting the stark contrast between the two creatures.</t>
-  </si>
-  <si>
-    <t>Translation: "When the crab dances, it does not do so without a reason; it moves sideways, claps its hands, and then raises its buttocks, dances, and finally throws sand into the air."
+Literal Translation Mapping: Ananse (spider) says (see) its (o'ko) mouth (pe) 'foolish' (kwasea), but (nanso) its (ono) body (ara) also (na) is (oyee) 'foolish' (kwasea).
+Cultural Context: In Akan folklore, Ananse is a popular trickster character known for his cunning and deceitful nature. This proverb highlights the hypocrisy of someone who criticizes others for a fault they possess themselves.
+Translation Clarification: The literal translation reveals that the spider, Ananse, is being hypocritical by calling something foolish while possessing the same foolishness within itself. This proverb serves as a caution against hypocrisy and self-awareness of one's own faults. The word 'kwasea' is used twice in the sentence to emphasize the irony of the situation.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+"When Ananse falls, he still holds onto the cobweb."
+Expanded Footnote:
+1. Literal Translation Mapping: The literal translation of the Akan text is "Ananse (spider) falls, yet he still holds onto the cobweb." This imagery of Ananse falling but still holding onto the cobweb is symbolic of resilience and determination in the face of challenges.
+2. Cultural Context: Ananse is a popular character in Akan folklore known for his cunning and resourcefulness. The cobweb is often used as a metaphor for a support system or a safety net. The saying conveys the idea that even when faced with difficulties or setbacks, one should not give up but rather hold on to whatever support or hope is available.
+3. Translation Clarification: In the literal translation, "Ananse" refers to the spider character in Akan folklore, while "ote ho" means "falls." "Osee" means "still" or "yet," and "o'pe" means "holds onto." "Kwasea" translates to "cobweb," and "nsoa" means "even." The faithful English translation would be "When Ananse falls, he still holds onto the cobweb," conveying the message of perseverance and resilience in the face of adversity.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+"Quietly, quietly, quietly, a snake has bitten someone."
+Expanded Footnote:
+1. Literal Translation Mapping: The Akan word "kyin" is repeated three times, emphasizing the idea of doing something quietly or stealthily. The word "wannya" means "snake" and "bi" means "someone," indicating that a snake has bitten someone quietly or without warning.
+2. Cultural Context: In Akan culture, snakes are often associated with danger and unpredictability. The repetition of "kyin" underscores the sudden and unexpected nature of the snake bite, highlighting the need to be cautious and vigilant in one's surroundings.
+3. Translation Clarification: The repeated use of "kyin" in the Akan text emphasizes the quiet and stealthy manner in which the snake has bitten someone. The word "wannya" specifically refers to a snake, and "bi" denotes a person. Therefore, the phrase conveys the message that danger can strike unexpectedly and without warning, urging individuals to be alert and careful in their actions.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation: "The hen has laid an egg."
+Expanded Footnote:
+1. Literal Translation Mapping: "Na" means "and," "oko" means "hen," "hyiaa" means "has laid," and "Osansa" means "egg." So, the literal translation would be "And hen has laid egg." This mapping directly connects with the actual meaning of the sentence, conveying the action of a hen laying an egg.
+2. Cultural Context: In Akan culture, hens laying eggs are symbolic of fertility, abundance, and productivity. It is a common occurrence in rural households and farms, signifying sustenance and growth. The act of a hen laying an egg is a natural and expected event, highlighting the cycle of life and the provision of food.
+3. Translation Clarification: The phrase "Na oko hyiaa Osansa" is a straightforward statement describing a simple and common occurrence. The word "Osansa" specifically refers to an egg laid by a hen, emphasizing the source and context of the action. The translation "The hen has laid an egg" faithfully captures the literal meaning of the Akan sentence while also conveying the cultural significance of this event in Akan society.</t>
+  </si>
+  <si>
+    <t>Akan Text: Osee, " Ma yen ko si nsoa."
+English Translation: He said, "Let's go and buy a knife."
+Expanded Footnote:
+1. Literal Translation Mapping: "Ma yen ko si nsoa" translates to "Let's go and buy a knife." 
+The literal translation connects with the actual meaning of the sentence as it directly conveys the action of going to purchase a knife.
+2. Cultural Context: In Akan culture, the knife holds significance as a tool used for various purposes, including cooking, farming, and other daily activities. The act of buying a knife may symbolize the need for a new tool or resource to accomplish a task or solve a problem.
+3. Translation Clarification: 
+- "Ma yen" translates to "Let's go," indicating a collective action involving the speaker and the listener(s).
+- "Ko" means "and" in this context, connecting the action of going with the subsequent action of buying.
+- "Si" translates to "buy," indicating the specific purpose of the trip.
+- "Nsoa" means "knife," representing the item to be purchased.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+The Akan text "Osansa see, 'Me wo nam me di'" translates to "The bird says, 'You should call me your child.'"
+Expanded Footnote:
+1. Literal Translation Mapping: The literal translation of "Osansa see, 'Me wo nam me di'" is "Bird says, 'You should call me your child.'" This mapping directly reflects the actual meaning of the sentence, where a bird is speaking and requesting to be referred to as a child.
+2. Cultural Context: In Akan culture, animals, especially birds, are often used in proverbs and sayings to convey wisdom or moral lessons. The bird in this context may symbolize a wise or respected figure advising someone to show respect or care towards them.
+3. Translation Clarification: 
+- "Osansa" is translated as "bird," which is a straightforward and faithful translation. In Akan culture, birds are often seen as messengers or symbols of wisdom.
+- "See" is translated as "says," which accurately conveys the act of speaking. In Akan, "see" is used to indicate speech or dialogue.
+- "Me wo nam me di" is translated as "You should call me your child." This translation captures the respectful tone and the request for acknowledgment and care implied in the original Akan phrase. In Akan culture, calling someone "your child" signifies a close and respectful relationship, often used to show affection or respect towards an elder or wise person.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+"After this, the hen called Anene, and said, 'Tell the children to come home.'"
+Expanded Footnote:
+1. Literal Translation Mapping: "Na akyiri yi na oko hyiaa Anene, na osee, 'Ma yenko si nsoa.'" translates to "After this, the hen called Anene, and said, 'Tell the children to come home.'" The literal translation closely reflects the actual meaning of the sentence, where a hen named Anene is being called upon to deliver a message to the children.
+2. Cultural Context: In Akan culture, animals are often used in folktales and stories to convey moral lessons or messages. The hen is a common character in Akan folklore, known for its nurturing and protective nature towards its chicks. The act of calling Anene to deliver a message to the children signifies a sense of responsibility and care within the community.
+3. Translation Clarification: 
+- "Na akyiri yi" means "After this" in English, indicating a sequence of events in the narrative.
+- "oko hyiaa Anene" translates to "the hen called Anene" where "oko" means hen and "hyiaa" means called.
+- "na osee, 'Ma yenko si nsoa'" is translated as "and said, 'Tell the children to come home.'" Here, "osee" means "said," "Ma" means "tell," "yenko" means "children," and "nsoa" means "home." The phrase emphasizes the importance of communication and looking out for one another within the community.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+Anene said, "I am full."
 Footnote:
-1. Literal Translation Mapping: The literal translation of the Akan text describes the specific actions of a crab when it dances, highlighting its movements and gestures.
-2. Cultural Context: In Akan culture, the crab is often used as a metaphor for someone who is cunning, strategic, or clever. The actions described in the text symbolize the calculated and deliberate nature of the crab's movements, reflecting the idea that every action has a purpose or intention behind it.
-3. Translation Clarification: The phrase "ode koro" (crab dances) is a metaphorical expression in Akan culture, representing someone who is being strategic or cunning in their actions. The actions of the crab, such as moving sideways, clapping its hands, and throwing sand, are symbolic of the calculated and deliberate nature of the individual's behavior. The phrase "ode yaneye" (raises its buttocks) is a unique cultural reference that signifies a specific movement associated with the crab's dance, emphasizing the attention to detail in the description.</t>
-  </si>
-  <si>
-    <t>Akan Text: Oforo, foro, foro a, twon !
-English Translation: Rain, rain, rain, come down!
-Expanded Footnote:
-1. Literal Translation Mapping: The literal translation of "Oforo, foro, foro a, twon !" is "Rain, rain, rain, come down!" The repetition of the word "foro" emphasizes the action of rain falling down.
-2. Cultural Context: In Akan culture, rain is often seen as a blessing from the gods and is essential for agriculture and the overall well-being of the community. The repetition of the word "foro" reflects the urgency and desire for rain to come down and nourish the land.
+1. Literal Translation Mapping: The literal translation of the Akan text "Anene see, 'M'ate'" is "Anene said, 'I am full'." The word "Anene" is a name, "see" means "said," and "M'ate" is a contraction of "Me ate" which translates to "I am full."
+2. Cultural Context: In Akan culture, it is common to express satisfaction or fullness after eating by saying "Me ate" or "I am full." This phrase reflects contentment and satisfaction with the meal consumed.
+3. Translation Clarification: The word "ate" in the Akan text is a contraction of "Me ate," where "Me" means "I" and "ate" means "full." The contraction "M'ate" is a colloquial way of saying "I am full" in Akan. This phrase is commonly used after a meal to indicate that one has eaten enough and is satisfied.</t>
+  </si>
+  <si>
+    <t>English Translation: And so, Osansa told Anene, "The bird you caught with Ananse's trap, kill it, for Ananse says it's foolish, and if you don't kill it, he will take the money instead."
+Footnote:
+1. Literal Translation Mapping: "Na yei na" translates to "And so," indicating a continuation or progression in the conversation. "Osansa ka kyeree Anene se" translates to "Osansa told Anene," setting the stage for the dialogue. The phrase "Nsoa a wo'ko ne Ananse asie no" translates to "The bird you caught with Ananse's trap," highlighting the specific bird in question. "Na Ananse se o'pe 'kwasea" translates to "Ananse says it's foolish," revealing Ananse's opinion on the situation. "Na one no asi nsoa no" translates to "And if you don't kill it," presenting a conditional statement. "Na wadi sika no nnyina" translates to "He will take the money instead," indicating the consequence of not following Ananse's advice.
+2. Cultural Context: Ananse is a popular character in Akan folklore known for his cunning and trickery. The mention of Ananse setting a trap and advising on the fate of the bird aligns with the traditional tales where Ananse outsmarts others through clever schemes. The concept of wisdom and foolishness is central to Akan culture, reflecting the importance of making wise decisions.
+3. Translation Clarification: The term "kwasea" translates to "foolish" in English, capturing the idea of lacking wisdom or making a foolish choice. The phrase "wadi sika no nnyina" translates to "he will take the money instead," emphasizing the consequence of not following Ananse's guidance. This dialogue showcases the dynamic between characters in Akan folklore, where wisdom and cunning play significant roles in the narrative.</t>
+  </si>
+  <si>
+    <t>English Translation: Anene said, "When you go, I will also go and bring the money."
+Expanded Footnote:
+1. Literal Translation Mapping: "Anene see, 'Wo die gyae, na me na megye sika no nnyina.'" translates to "Anene said, 'You go, and I also go bring the money.'" The literal translation accurately reflects the sequence of events and actions described in the sentence.
+2. Cultural Context: In Akan culture, there is a strong emphasis on reciprocity and mutual support within relationships. The statement made by Anene highlights the idea of solidarity and shared responsibility. It signifies a commitment to accompany and assist someone in their endeavors.
 3. Translation Clarification: 
-- "Oforo" translates to "rain" in English, emphasizing the specific natural phenomenon being called upon.
-- The repetition of "foro" in the Akan line adds emphasis and urgency to the request for rain to come down.
-- "Twon" translates to "come down" in English, indicating the direction of the rain towards the earth.</t>
+- "Wo die gyae" translates to "You go" where "wo" means "you," "die" means "go," and "gyae" emphasizes the action of going. This phrase signifies the initiation of an action by the second person.
+- "Na me na megye sika no nnyina" translates to "and I also go bring the money." Here, "na" is a conjunction meaning "and," "me" means "I," "megye" means "go," "sika" means "money," and "nnyina" means "bring." This phrase indicates Anene's willingness to accompany the other person and contribute to the financial aspect of the situation.</t>
   </si>
   <si>
     <t>Akan to English Translation:
-"When the hand washes the other, both become clean." 
-Expanded Footnote:
-1. Literal Translation Mapping: The literal translation of the Akan line "Na ode aka no bio, nso oforo, foro, foro, twon!" is "When one hand washes the other, both become clean." This literal translation directly connects with the actual meaning of the sentence, emphasizing the concept of mutual benefit and cooperation.
-2. Cultural Context: This Akan proverb highlights the importance of collaboration and helping one another in the community. It reflects the cultural value of reciprocity and the idea that when individuals work together and support each other, everyone benefits. The use of the metaphor of washing hands symbolizes the idea of mutual assistance leading to shared success and well-being.
+"The tortoise and the spider went to a funeral but the tortoise did not return." 
+Expanded Footnote:
+1. Literal Translation Mapping: "Anene ne Ananse" translates to "the tortoise and the spider," "sjim' koo wuram' ko" translates to "went to a funeral," and "twitwaa papa" translates to "did not return." The literal translation connects with the actual meaning of the sentence by illustrating a story involving the tortoise and the spider attending a funeral, with a focus on the tortoise not returning.
+2. Cultural Context: In Akan folklore, the tortoise and the spider are often characters in moral tales and fables. Funerals are significant events in Akan culture, where the community comes together to mourn and celebrate the life of the deceased. The mention of the tortoise not returning may hint at a moral lesson or consequence for the character's actions.
+3. Translation Clarification: The phrase "sjim' koo wuram' ko" directly translates to "went to a funeral," emphasizing the specific event the characters attended. "Twitwaa papa" translates to "did not return," indicating the outcome of the tortoise's participation in the funeral. The phrase "twitwaa papa" carries a sense of finality and may imply that the tortoise faced consequences or met with an unfortunate fate after the funeral.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+Anene said to Ananse, "Tell the spider that I have been captured, and you should come and rescue me."
+Footnote:
+Literal Translation Mapping: Anene ka kyeree Ananse se - Anene said to Ananse, "Fa sekan ma me na me ntwitwa, na wo so fa no bere." - Tell the spider that I have been captured, and you should come and rescue me.
+Cultural Context: In Akan folklore, Anene and Ananse are characters often used in stories to convey moral lessons or entertain listeners. Anene is portrayed as a wise and cunning character, while Ananse is known for his cleverness and trickery. This line reflects a common theme in Akan folklore where characters find themselves in challenging situations and seek help from others to overcome them.
+Translation Clarification: The phrase "fa sekan ma me" translates to "tell the spider that I have been captured." In Akan culture, the spider (Ananse) is often depicted as a cunning and resourceful character. The word "ntwitwa" means "captured" or "trapped," emphasizing the urgency of the situation. The phrase "wo so fa no bere" translates to "you should come and rescue me." The word "bere" means "rescue" or "save," highlighting the plea for assistance in a time of need.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+Ananse said, "Do you think I am a fool? give me a knife, and you will see."
+Expanded Footnote:
+1. Literal Translation Mapping: Ananse see, "Me na wo bu me 'kwasea? ma me ntwitwa, na wo so fa no bere." translates to "Ananse said, 'Do you think I am a fool? give me a knife, and you will see.'" The literal translation closely reflects the actual meaning of the sentence, where Ananse is challenging someone's perception of him being a fool and requesting a knife to prove otherwise.
+2. Cultural Context: Ananse is a popular character in Akan folklore known for his cunning and trickery. In this line, Ananse is using his wit and cleverness to challenge the other person's assumption about his intelligence. The request for a knife is likely a setup for a clever demonstration or trick that Ananse has in mind to prove his intelligence.
+3. Translation Clarification: "Me na wo bu me 'kwasea?" translates to "Do you think I am a fool?" The term "kwasea" is a strong insult in Akan culture, referring to someone as foolish or stupid. "Ma me ntwitwa, na wo so fa no bere" translates to "give me a knife, and you will see." This phrase indicates that Ananse is confident in his abilities and is willing to demonstrate his intelligence through a clever action involving the knife. The use of the knife in this context may symbolize a tool for Ananse to showcase his cunning and intelligence in a creative way.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+"The spider is called Ananse, and the bat is called Anene."
+Footnote:
+1. Literal Translation Mapping: The literal translation of the Akan line is "Ananse is called Ananse, and Anene is called Anene." This mapping emphasizes the naming or identification of the spider and the bat by their respective names.
+2. Cultural Context: In Akan culture, Ananse is a popular folklore character known for his cunning and trickery, while Anene is associated with the bat, which is often seen as a mysterious and nocturnal creature. The line highlights the distinct identities of these two characters in Akan folklore.
+3. Translation Clarification: The repetition of the names "Ananse" and "Anene" in the literal translation serves to emphasize the specific identities of the spider and the bat. The faithful English translation maintains the original names to preserve the cultural significance of these characters in Akan folklore.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+"When a person is called, he or she responds."
+Expanded Footnote:
+1. Literal Translation Mapping: "Otwitwa" means "a person is called," "wieye" means "he or she," "na" means "and," and "kyekyereye" means "responds." The literal translation connects by showing the sequence of events where someone is called and then responds.
+2. Cultural Context: This Akan proverb emphasizes the importance of responding when called or summoned. In Akan culture, it is considered respectful and responsible to acknowledge and respond promptly when someone calls your name or asks for your attention.
+3. Translation Clarification: The literal translation accurately captures the essence of the proverb, highlighting the idea of acknowledging and responding to calls or requests. The phrase "na na ye'kyekyereye" is a repetitive structure in Akan that emphasizes the action of responding, emphasizing the importance of prompt and respectful communication in Akan society.</t>
+  </si>
+  <si>
+    <t>English Translation: Anene said, "Ananse, give me the horn, and you blow the trumpet."
+Expanded Footnote:
+1. Literal Translation Mapping: Anene see, "Ananse ma me mfa nsoa, na wo so fa no bere." translates to "Anene said, 'Ananse, give me the horn, and you blow the trumpet.'" The literal translation connects with the actual meaning of the sentence by highlighting a conversation between Anene and Ananse where Anene is requesting the horn while Ananse is asked to blow the trumpet.
+2. Cultural Context: In Akan culture, Ananse is a popular folklore character known for his cunning and trickery. The use of the horn and trumpet in this context may symbolize different roles or tasks assigned to each character, reflecting their individual strengths or abilities.
+3. Translation Clarification: "Anene see" is translated as "Anene said," where "see" is used to indicate speech or dialogue in Akan. "Ananse ma me mfa nsoa" is translated as "Ananse, give me the horn," with "ma" meaning "give" and "mfa nsoa" referring to the horn. "Na wo so fa no bere" is translated as "and you blow the trumpet," with "na" meaning "and," "wo" referring to "you," "so" meaning "blow," and "fa no bere" representing "the trumpet." The phrase emphasizes a division of tasks or responsibilities between Anene and Ananse, showcasing a collaborative effort or partnership.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said, "Come here, why did you call me a fool?"
+Footnote:
+1. Literal Translation Mapping: Ananse see, "So' ho, na me na wo bu me 'kwasea?" translates to "Ananse said, 'Come here, why did you call me a fool?'" The literal translation maintains the order of the words in the Akan sentence, with the verb "see" indicating speech, followed by the imperative "So' ho" (Come here), and the question "na me na wo bu me 'kwasea?" (why did you call me a fool?).
+2. Cultural Context: Ananse is a popular character in Akan folklore known for his cunning and trickery. In this line, Ananse is questioning why someone has insulted him by calling him a fool. Insults and name-calling are taken seriously in Akan culture, and questioning such behavior is a common response to defend one's honor.
+3. Translation Clarification: The term "kwasea" translates to "fool" in English, but it carries a stronger negative connotation in Akan culture. Being called a "kwasea" is a serious insult that questions one's intelligence and character. Ananse's response reflects his disbelief and offense at being labeled in such a derogatory manner. The use of the imperative "So' ho" emphasizes Ananse's demand for an explanation and confrontation with the person who insulted him.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation: "He/she is sleeping."
+Expanded Footnote:
+1. Literal Translation Mapping: The literal translation of "Na ofa soaye" is "He/she is sleeping." In this translation, "na" means "he/she," "ofa" means "sleep," and "soaye" means "is/are."
+2. Cultural Context: In Akan culture, sleep is highly valued as it is essential for rest and rejuvenation. The act of sleeping is seen as a natural and necessary part of daily life.
+3. Translation Clarification: The word "ofa" directly translates to "sleep," and "soaye" translates to "is/are." The phrase "Na ofa soaye" is a simple and straightforward statement indicating that someone is currently in a state of sleep.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+"When the day breaks, the snail comes out."
+Footnote:
+1. Literal Translation Mapping: "Anene" means day, "dii" means break, "akyeire" means snail, and "o'pene" means come out. So, the literal translation connects by describing the action of a snail coming out when the day breaks.
+2. Cultural Context: In Akan culture, the snail is known for its slow and cautious nature. The saying reflects the idea that just as the snail cautiously emerges when it feels safe with the light of day, people should also approach situations with care and caution.
+3. Translation Clarification: The phrase "Anene dii akyire na o'pene" is a metaphorical expression that advises people to be patient and cautious in their actions. The literal translation captures the imagery of a snail coming out when the day breaks, but the deeper meaning emphasizes the importance of being careful and deliberate in one's decisions and actions.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+"When you get home, Anene said, 'Give me water to drink, for your journey is long.'"
+Expanded Footnote:
+1. Literal Translation Mapping: "Ye'baa 'fie" translates to "When you get home," "Anene see" translates to "Anene said," "Ma me mmeyo nsoa" translates to "Give me water to drink," and "na w'afa no bere" translates to "for your journey is long." The literal translation connects by following the sequence of events and actions in the sentence.
+2. Cultural Context: In Akan culture, hospitality is highly valued, and it is common for guests to be offered water or refreshments upon arrival at someone's home. Anene's request for water signifies a gesture of care and consideration for the traveler's well-being.
+3. Translation Clarification: "Ma me mmeyo nsoa" is a polite way of requesting water to drink in Akan, emphasizing the act of giving. "W'afa no bere" highlights the importance of staying hydrated during a long journey, showing concern for the traveler's comfort and safety. The phrase "Ye'baa 'fie" sets the context for the action to take place upon arrival at home, indicating a sense of anticipation and readiness to fulfill the request.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said, "If you don't agree with me, then you should leave."
+Expanded Footnote:
+1. Literal Translation Mapping: Ananse see, "Dabi da ma me nyo, na wo so fa no bere." translates to "Ananse said, 'If not agree with me, then you should leave.'" The literal translation captures the essence of Ananse expressing a condition and consequence in the statement.
+2. Cultural Context: Ananse is a popular character in Akan folklore known for his cunning and wisdom. In this line, Ananse is using a conditional statement to assert his authority or opinion, which is a common communication style in Akan culture.
+3. Translation Clarification: The phrase "Dabi da ma me nyo" translates to "If not agree with me," where "dabi" means "if," "da" means "not," "ma" means "agree," "me" means "with," and "nyo" means "me." The phrase "na wo so fa no bere" translates to "then you should leave," where "na" means "then," "wo" means "you," "so" means "should," "fa" means "leave," and "no bere" means "it." This translation clarifies the conditional nature of Ananse's statement and the direct consequence of not agreeing with him in the Akan cultural context.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+"And Anene's fowl crows in the evening, yet it does not see." 
+Footnote:
+Literal Translation Mapping: "Na" - And, "Anene" - Anene (a name), "ko" - fowl, "daa" - crows, "ayeya" - evening, "na" - yet, "o'pene" - does not see. The literal translation connects with the actual meaning of the sentence by describing a situation where Anene's fowl crows in the evening but is unable to see, implying a sense of futility or lack of awareness.
+Cultural Context: In Akan culture, the crowing of a fowl in the evening is often associated with signaling the end of the day or impending darkness. The mention of Anene, a name, adds a personal touch to the expression, possibly indicating a specific individual or situation.
+Translation Clarification: The phrase "Anene ko daa ayeya" translates to "Anene's fowl crows in the evening," highlighting the action of the fowl at a specific time. The addition of "na o'pene" which means "yet it does not see," emphasizes the irony or ineffectiveness of the fowl's action, as it crows without being able to see. This expression could be used metaphorically to convey a sense of wasted effort or actions without results.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said, "Fool, you claim to be wise, yet you are dead."
+Footnote:
+1. Literal Translation Mapping: Ananse see, "Kwasea, wo se wo nim nyansa, na wo' wuo no." translates to "Ananse said, 'Fool, you claim you know wisdom, and you are dead.'" The literal translation connects with the actual meaning of the sentence by highlighting a conversation where Ananse is addressing someone who is being called a fool despite claiming to be wise but is actually dead.
+2. Cultural Context: In Akan culture, Ananse is a popular folklore character known for his cunning and wisdom. The term "Kwasea" translates to "fool" and is used to address someone who is being foolish or acting in a silly manner. The reference to claiming wisdom while being dead could symbolize someone who is arrogant or pretentious about their knowledge or abilities but lacks true understanding or is spiritually dead.
+3. Translation Clarification: The phrase "wo se wo nim nyansa" translates to "you claim you know wisdom," emphasizing the act of boasting about one's intelligence or knowledge. The term "na" is used to connect the two clauses in the sentence, indicating a cause-and-effect relationship between claiming wisdom and being dead. The word "wuo" means "dead," conveying the finality of the situation or the lack of vitality in the person being addressed.</t>
+  </si>
+  <si>
+    <t>English Translation: When Ananse caught the snake, Anene said, "Give me the snake, I will pour water on it and kill it."
+Expanded Footnote:
+1. Literal Translation Mapping: Ananse wiee nsoa no, Anene see, " Ma me mfa nsoa, me nko nsuom' na w'afa no bere." 
+- Ananse caught snake it, Anene said, "Give me I pour water on it and kill it."
+The literal translation reflects the action of Ananse catching the snake and Anene requesting the snake to be handed over for a specific purpose.
+2. Cultural Context: Ananse is a popular character in Akan folklore known for his cunning and trickery. In this context, Ananse catching the snake may symbolize his cleverness and ability to outsmart others. Anene's request to pour water on the snake to kill it may represent a traditional method of dealing with dangerous creatures in Akan culture.
 3. Translation Clarification: 
-- "Na" translates to "when" in English, indicating a conditional relationship between the actions described.
-- "Ode" means "one" or "someone" in this context, referring to an individual or a group.
-- "Aka" translates to "hand," which symbolizes action or effort in this proverb.
-- "Bio" means "wash" in this context, signifying the act of helping or supporting.
-- "Nso" is a conjunction that can be translated as "both" or "also," emphasizing the mutual benefit.
-- "Oforo, foro, foro, twon" translates to "become clean" in English, illustrating the positive outcome of cooperation and collaboration.</t>
-  </si>
-  <si>
-    <t>Akan Text: Na ne ba, Ntikuma, gyina ho a, ose, "E ! w'ani awu, nkra wo danee toa no too w'akyi a, nkra watimi afo'."
-English Translation: And his child, Ntikuma, upon hearing this, said, "Hey! If your eye kills a bird, it is your leg that will carry it home, not your eye."
-Expanded Footnote:
-1. Literal Translation Mapping: The literal translation of the Akan line is "And his child, Ntikuma, upon hearing this, said, 'Hey! If your eye kills a bird, it is your leg that will carry it home, not your eye.'" The phrase "your eye kills a bird" symbolizes taking action or making a decision, while "your leg will carry it home" represents the consequences or results of that action.
-2. Cultural Context: This Akan proverb emphasizes the importance of taking responsibility for one's actions and facing the consequences. It highlights the idea that actions have repercussions, and one must be prepared to deal with the outcomes of their decisions.
-3. Translation Clarification: In the literal translation, "your eye kills a bird" signifies making a decision or taking action, while "your leg will carry it home" refers to facing the consequences or results of that action. The phrase "nkra wo danee toa no too w'akyi" is idiomatic and conveys the idea that one must take responsibility for their actions. The use of "nkra watimi afo'" signifies the need to accept the consequences of one's decisions, as represented by the bird being carried home by the leg, not the eye.</t>
+- "Ma me mfa nsoa" translates to "Give me I pour water on it." The phrase "ma me" means "give me," and "mfa" means "pour." This request is straightforward and emphasizes the action Anene intends to take with the snake.
+- "Me nko nsuom' na w'afa no bere" translates to "I will kill it." The phrase "me nko" means "I will," "nsuom" means "water," and "w'afa no bere" means "kill it." This phrase clarifies Anene's intention to use water as a means of killing the snake, showcasing a practical approach to dealing with the situation.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said, "No, I will not help you, for you will die."
+Expanded Footnote:
+1. Literal Translation Mapping: Ananse see, "Dabi, na me'de'ko, na w'afa no bere." translates to "Ananse said, 'No, I will not help you, for you will die.'" The literal translation connects with the actual meaning of the sentence by directly conveying Ananse's refusal to assist someone due to the belief that it will lead to their death.
+2. Cultural Context: Ananse is a popular character in Akan folklore known for his cunning and trickery. In this line, Ananse's decision not to help someone because it may result in their death reflects his clever and sometimes self-serving nature. The concept of death in this context may also symbolize a negative outcome or consequence.
+3. Translation Clarification: The Akan phrase "me'de'ko" translates to "I will not help you," with "me" meaning "I," "de" meaning "help," and "ko" indicating negation. The word "w'afa" translates to "you will die," with "w'" representing "you," "afa" meaning "die," and "bere" indicating future tense. The phrase "na" is used to connect the clauses in the sentence. In English, the translation captures the essence of Ananse's refusal to assist, emphasizing the potential negative outcome for the person seeking help.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation: "We should fetch water and drink."
+Expanded Footnote:
+1. Literal Translation Mapping: The literal translation of the Akan text "Ye'ko duruu nsuo nom'" is "We should fetch water and drink." The phrase "Ye'ko" means "we should" or "let us," "duruu" means "fetch," "nsuo" means "water," and "nom'" means "drink." The literal translation accurately reflects the action of fetching water and drinking it as a directive or suggestion to the group.
+2. Cultural Context: In Akan culture, fetching water is a common household chore that symbolizes the daily tasks and responsibilities of individuals within a community. Water is essential for life and is often associated with sustenance and vitality. The act of fetching water and drinking it together can also symbolize unity, cooperation, and communal living.
+3. Translation Clarification: The phrase "Ye'ko" is a directive form in Akan, indicating a suggestion or proposal for a group to take action together. "Duruu" specifically means "fetch" in the context of physically obtaining water. "Nsuo" refers to water, which holds significance in Akan culture for its life-giving properties. "Nom'" is the verb "drink," emphasizing the action of consuming the water after fetching it. Overall, the translation captures the practical and communal aspects of the Akan phrase, highlighting the importance of cooperation and shared responsibilities in daily life.</t>
   </si>
   <si>
     <t>Akan to English Translation:
-He said, "Your secret is with you."
+Anene said, "Father Ananse, throw one of your spider webs into the river for me to cross, and if the web breaks, it's your fault."
 Footnote:
-1. Literal Translation Mapping: "So ho ne wo mpan'insem" translates to "Your secret is with you." The literal translation directly reflects the actual meaning of the sentence, emphasizing the possession and ownership of one's secret.
-2. Cultural Context: In Akan culture, the concept of keeping secrets and maintaining confidentiality is highly valued. This phrase highlights the importance of personal privacy and discretion in relationships and interactions.
+1. Literal Translation Mapping: The literal translation of the Akan text is "Anene said, 'Father Ananse, throw one spider web into the river for me to cross, and if the web breaks, it's your fault.'" This mapping shows how the elements of the sentence directly correspond to the actual meaning conveyed.
+2. Cultural Context: In Akan folklore, Ananse is a popular trickster character known for his cunning and cleverness. The request for Ananse to throw a spider web into the river reflects the resourcefulness and magical abilities attributed to him in traditional stories. The idea of crossing a river using a spider web also highlights the fantastical and imaginative nature of Akan folklore.
+3. Translation Clarification: The phrase "Agya Ananse aboa bi wo nsuom" translates to "Father Ananse, throw one of your spider webs into the river." "Aboa" means spider web, and it symbolizes Ananse's supernatural powers. The expression "na ma me nsim' me mfa nsoa yi nnum'" translates to "for me to cross," emphasizing the purpose of the spider web. The line "na aboa no ka me a, w'afa ne wuo" translates to "and if the web breaks, it's your fault," indicating the consequence if Ananse's web fails to support Anene. This exchange captures the playful yet cunning nature of Ananse stories in Akan culture.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said, "Ah! If you call me a fool, I will show you my backside, and you will see your own face."
+Footnote:
+1. Literal Translation Mapping: The literal translation of the Akan text is: "Ananse see, "Ah! you call me 'fool' good, me, me show backside and hit me, your face see." This mapping shows how the elements of the sentence connect to convey the intended meaning.
+2. Cultural Context: Ananse is a popular character in Akan folklore known for his cunning and trickery. In this line, Ananse is responding to being insulted as a fool by threatening to show the insulter their own foolishness. The use of showing the backside and seeing one's own face is a clever way of turning the insult back on the insulter.
+3. Translation Clarification: The phrase "wo bu me 'kwasea pa" translates to "you call me a fool good." The word "kwasea" means fool in Akan, and the addition of "pa" emphasizes the insult. The phrase "me de'ko gum" translates to "I will show my backside," which is a symbolic gesture of defiance. The phrase "w'afa no wuo" translates to "your face see," indicating that the insulter will be confronted with their own foolishness.</t>
+  </si>
+  <si>
+    <t>Akan Text: Ananse de nsoa no ko guum', na ye'baa 'fie.
+English Translation: Ananse caught the hornet, and it stung his child at home.
+Footnote:
+Literal Translation Mapping: Ananse (a popular trickster character in Akan folklore) caught the hornet, and it stung his child at home.
+Cultural Context: This Akan line is a reference to a popular folktale involving Ananse, a cunning spider known for his cleverness and trickery. In this story, Ananse catches a hornet but ends up causing harm to his own child in the process. The tale serves as a cautionary lesson about the consequences of one's actions and the importance of thinking through the potential outcomes of one's schemes.
+Translation Clarification: In the literal translation, "Ananse de nsoa no ko guum'" means "Ananse caught the hornet," highlighting the action taken by the character. "Na ye'baa 'fie" translates to "and it stung his child at home," emphasizing the unintended consequence of Ananse's actions. The phrase "ye'baa 'fie" is idiomatic in Akan, conveying the idea of harm or trouble befalling someone close to the individual involved in the initial action.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+"When the crab walks, its children also walk, but they do not walk sideways."
+Expanded Footnote:
+1. Literal Translation Mapping: "Adeekyeye" (crab), "ye'ko fwee" (walks), "nsoa no" (its children), "na" (but), "ayi" (they), "adwene" (sideways), "mmienu" (do not walk). The literal translation connects with the actual meaning of the sentence by illustrating the behavior of a crab and its offspring, emphasizing that while the children imitate the parent's walking, they do not walk sideways like the crab.
+2. Cultural Context: In Akan culture, the crab is often used as a symbol of wisdom and guidance for the younger generation. This proverb highlights the idea that children may imitate their parents' actions to some extent but may not fully replicate all aspects of their behavior.
+3. Translation Clarification: The phrase "ye'ko fwee" (walks) is translated as "walk" in the sentence, emphasizing the action of movement. The term "adwene" (sideways) is crucial in conveying the unique sideways movement of crabs, which is a distinctive characteristic referenced in the proverb. The phrase "na ayi" (but they) is translated as "but" to contrast the behavior of the children with that of the crab, emphasizing the difference in their walking styles.</t>
+  </si>
+  <si>
+    <t>English Translation: Anene said, "Ananse, if you can catch this bird, then you are truly wise, and I will give you my daughter."
+Footnote:
+1. Literal Translation Mapping: Anene see, "Ananse, wo fa mmienu yi, na okyena ye'beba na ayi nnan, na me so m'afa." translates to "Anene said, 'Ananse, if you catch this bird, then truly wise you are, and I will give you my daughter." The literal translation captures the sequence of events and conditions set by Anene for Ananse to prove his wisdom.
+2. Cultural Context: This Akan line is a reference to a popular folktale involving Ananse, a cunning spider character known for his cleverness. In Akan culture, wisdom and intelligence are highly valued traits, and Ananse stories often revolve around his attempts to outsmart others. The offer of the daughter as a reward is a common motif in traditional Akan storytelling, symbolizing a significant prize or challenge.
+3. Translation Clarification: The phrase "okyena ye'beba" translates to "truly wise you are" in English, emphasizing the importance of wisdom in the context of the story. The term "afa" refers to the daughter, but it also carries the connotation of a valuable possession or reward, highlighting the significance of the challenge presented to Ananse.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said, "Oh! this turtle, you have done me a great favor; you have saved my life, and I will never forget it."
+Footnote:
+1. Literal Translation Mapping: Ananse see, "A! akoa yi, wo bu me 'kwasea pa; wo fa mmienu yi, na me so okyena m'afa nnan no." translates to "Ananse said, 'Oh! this turtle, you have done me a great favor; you have saved my life, and I will never forget it.'" The literal translation closely reflects the actual meaning of the sentence, emphasizing Ananse's gratitude towards the turtle for saving his life.
+2. Cultural Context: Ananse is a popular character in Akan folklore known for his cunning and trickery. In this context, the turtle is depicted as a helpful character who comes to Ananse's aid. The interaction between Ananse and the turtle highlights themes of gratitude, reciprocity, and the importance of helping others in Akan culture.
 3. Translation Clarification: 
-- "So" means "your" in Akan, indicating possession or ownership.
-- "Ho" translates to "secret," referring to confidential information or personal matters not meant for public knowledge.
-- "Ne" is a linking word meaning "is" or "equals."
-- "Wo" means "with" in this context, denoting the location or possession of the secret.
-- "Mpan'insem" translates to "you," emphasizing the personal nature of the secret being referenced.</t>
-  </si>
-  <si>
-    <t>Akan Text: Na wasan aforo bio sara, nsoso pasa!
-English Translation: When the old calabash breaks, the new one is put to the test!
-Expanded Footnote:
-1. Literal Translation Mapping: "Na" - When, "wasan" - old calabash, "aforo" - breaks, "bio" - new, "sara" - put to the test, "nsoso" - one, "pasa" - test. The literal translation connects with the actual meaning of the sentence by illustrating a situation where an old calabash breaks, and the new one is tested or put to use.
-2. Cultural Context: In Akan culture, the calabash is a symbol of tradition and continuity. When an old calabash breaks, it signifies the passing of time and the need to adapt to change by using a new one. This proverb emphasizes the importance of resilience and adaptability in the face of challenges or changes.
-3. Translation Clarification: The phrase "nsoso pasa" is translated as "the new one is put to the test" in English. This captures the essence of the Akan proverb, highlighting the idea that when faced with new circumstances or challenges, one must prove their worth or capability. The use of the calabash metaphor reflects the cultural significance of traditional symbols in conveying wisdom and life lessons.</t>
-  </si>
-  <si>
-    <t>English Translation: After the funeral, they will remove the mourning cloth.
-Expanded Footnote:
-1. Literal Translation Mapping: "Afei na" translates to "After that" or "Then," "ofwe ha" translates to "funeral," "na" translates to "they will," "ode" translates to "remove," "toa" translates to "mourning cloth," "no" translates to "it," "too" translates to "on," and "n'akyi" translates to "top."
-2. Cultural Context: In Akan culture, mourning cloths are worn by family members and close relatives during funeral ceremonies as a sign of respect for the deceased. The act of removing the mourning cloth symbolizes the end of the mourning period and the transition back to regular daily life.
-3. Translation Clarification: The phrase "ode toa no too n'akyi" literally translates to "they will remove it on top." In this context, "it" refers to the mourning cloth. The phrase signifies the specific action of taking off the mourning cloth after the funeral, marking the completion of the mourning period. The removal of the mourning cloth is a significant cultural practice in Akan funerals, signifying the conclusion of the mourning process and the beginning of the healing and acceptance phase for the bereaved family.</t>
-  </si>
-  <si>
-    <t>English Translation: When the year ends, it shouts "kra! kra! kra!" to the old penny.
-Expanded Footnote:
-1. Literal Translation Mapping: "Afeidie" means "year ends," "ode" means "shouts," "kaa" means "kra," and "ona" means "old penny." The literal translation connects with the actual meaning of the sentence by describing the end of the year as a time when something or someone (symbolized by the old penny) is being shouted at or called out to.
-2. Cultural Context: In Akan culture, the end of the year is often seen as a time of reflection, celebration, and preparation for the new year. The use of "kra! kra! kra!" mimics the sound of shouting or calling out, emphasizing the significance of the moment.
-3. Translation Clarification: The word "kra" is an onomatopoeic representation of the sound of shouting or calling out. In this context, it signifies the announcement or marking of the end of the year. The reference to the "old penny" may symbolize the passing of time and the need to let go of the past as a new year approaches.</t>
+- "A! akoa yi" is translated as "Oh! this turtle," where "A!" is an exclamation expressing surprise or realization, and "akoa yi" refers to the specific turtle being addressed.
+- "wo bu me 'kwasea pa" is translated as "you have done me a great favor," where "wo bu" means "you have done," "me" is "me/my," "'kwasea" is "favor," and "pa" emphasizes the greatness of the favor.
+- "wo fa mmienu yi" is translated as "you have saved my life," where "wo fa" means "you have saved," "mmienu" is "my life," and "yi" emphasizes the significance of the life being saved.
+- "na me so okyena m'afa nnan no" is translated as "and I will never forget it," where "na" is "and," "me so" is "I will," "okyena" is "forget," "m'afa nnan" is "never," and "no" refers to the action of forgetting.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation: The bird has flown.
+Expanded Footnote:
+1. Literal Translation Mapping: The Akan phrase "Anene faye" can be literally translated as "bird fly." In this context, "faye" is the past tense form of the verb "to fly," indicating that the action has already taken place.
+2. Cultural Context: In Akan culture, birds are often seen as symbols of freedom, agility, and swift movement. The phrase "Anene faye" can be used metaphorically to convey the idea that an opportunity has been missed or that something has happened unexpectedly or suddenly.
+3. Translation Clarification: The phrase "Anene faye" is a concise and poetic way of expressing that something has happened swiftly or unexpectedly. The word "Anene" refers to a bird, and "faye" indicates that the bird has flown. In English, this can be translated as "The bird has flown," which captures the essence of the Akan phrase in a faithful manner.</t>
   </si>
   <si>
     <t>Akan to English Translation:
-The spider climbed up the tree and said, "Kwaku Ananse, I have come to challenge you, my child, step by step, step by step, step by step, me, me, you yourself, do not think you are the only one with wisdom, for what you have done, I have also seen, my child, you are full of deceit, and you deceive me!"
+"Adeekyeye, ye'koye na ayi nnan."
+Translation Footnote:
+Literal Translation Mapping: "Adeekyeye" means "a broom," "ye'koye" means "sweeps," "na" means "and," and "ayi nnan" means "it cleans well." Therefore, the literal translation would be "The broom sweeps and it cleans well."
+Cultural Context: In Akan culture, the broom symbolizes cleanliness and orderliness. Brooms are used to sweep away dirt and keep the surroundings clean, reflecting the importance of cleanliness in Akan society.
+Translation Clarification: The phrase "Adeekyeye, ye'koye na ayi nnan" is an idiomatic expression in Akan that means someone or something is very effective at cleaning or getting rid of dirt. The broom is used as a metaphor for efficiency and thoroughness in cleaning. So, a more faithful translation would be "The broom sweeps and cleans well," emphasizing the effectiveness of the cleaning process.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+Anene said, "If you plant this seed, tomorrow it will bear fruit, and I will eat my share."
 Footnote:
-1. Literal Translation Mapping: The literal translation of the Akan text is "The spider climbed the tree and said, 'Kwaku Ananse, I have come, my child, step by step, step by step, step by step, me, me, you yourself, do not think you are the only one with wisdom, for what you have done, I have also seen, my child, deceitful, and you deceive me!'" This mapping shows how each word in the Akan sentence corresponds to its English translation, highlighting the progression of the spider's challenge to Kwaku Ananse.
-2. Cultural Context: In Akan folklore, Kwaku Ananse is a popular character known for his cunning and trickery. The spider in this text is challenging Kwaku Ananse, accusing him of deceit and claiming to have knowledge of his actions. This reflects the cultural value placed on wisdom, honesty, and accountability in Akan society.
-3. Translation Clarification: The phrase "me 'ba" is translated as "my child," emphasizing a familial or intimate relationship between the spider and Kwaku Ananse. The repetition of "kete, kete, kete" adds emphasis to the step-by-step challenge being issued. The term "nyansa" translates to "wisdom" but also carries connotations of intelligence and cunning in the Akan context. The word "maboaboa" means "deceitful" or "full of deceit," highlighting the spider's accusation against Kwaku Ananse.</t>
-  </si>
-  <si>
-    <t>Akan Text: Na osoo toa no mu,. na tintini ! na atoo toa no twene, na tesee !
-English Translation: When the crab walks, it moves sideways; when the scorpion walks, it moves backwards.
-Expanded Footnote:
-1. Literal Translation Mapping: "Na osoo toa no mu" translates to "When the crab walks, it moves sideways," and "na tintini ! na atoo toa no twene, na tesee !" translates to "when the scorpion walks, it moves backwards." The literal translation connects with the actual meaning of the sentence by illustrating the unique ways in which crabs and scorpions move, emphasizing their distinct characteristics.
-2. Cultural Context: In Akan culture, crabs and scorpions are used metaphorically to represent different behaviors or approaches to situations. The sideways movement of a crab and the backward movement of a scorpion are symbolic of unconventional or indirect methods of achieving goals. This line is often used to advise someone to be strategic and adaptable in their actions, similar to how crabs and scorpions navigate their environments.
-3. Translation Clarification: The Akan line uses the movements of a crab and a scorpion to convey the idea of adapting one's approach based on the situation. "Tintini" refers to a scorpion, and "atoo" refers to a crab. The phrase "toa no mu" means "it moves" or "it walks," emphasizing the action of these creatures. The English translation faithfully captures the essence of the Akan line by highlighting the unique movements of the crab and scorpion and their symbolic significance in advising on strategic behavior.</t>
-  </si>
-  <si>
-    <t>English Translation: If someone has wisdom, they will see a problem, but if you cover your head with a cloth, you are (called) a fool.
-Expanded Footnote:
-1. Literal Translation Mapping: "Ene se nyansa obiara nyaa bie, na wo a wanko ho ntem no, ene (sebe) 'kwasea." translates to "If someone has wisdom, they will see a problem, but if you cover your head with a cloth, you are (called) a fool." The literal translation highlights the contrast between having wisdom and being foolish in the face of a problem.
-2. Cultural Context: In Akan culture, wisdom is highly valued, and being able to identify and address problems is seen as a sign of intelligence and maturity. The act of covering one's head with a cloth is symbolic of ignoring or avoiding a problem, which is considered foolish behavior.
-3. Translation Clarification: The word "nyansa" translates to "wisdom" in English, emphasizing the importance of intelligence and insight in the Akan community. The term "kwasea" translates to "fool" in English, capturing the idea of someone who lacks wisdom and makes poor decisions. The phrase "wanko ho ntem no" translates to "see a problem" in English, illustrating the ability to recognize and acknowledge challenges.</t>
-  </si>
-  <si>
-    <t>English Translation: My proverbial sayings, if you heed them, you will prosper; if you ignore them, you will suffer loss.
+1. Literal Translation Mapping: The literal translation of the Akan line "Wo fa nnan yi, na okyena ye'beba na ayi nwotwe, na me so m'afa" is "You plant this seed, then tomorrow it will bear fruit, and I will eat my share." The mapping shows a direct connection between the actions of planting a seed, the future outcome of bearing fruit, and the speaker's intention to partake in the harvest.
+2. Cultural Context: This Akan proverb emphasizes the importance of taking action in the present for future benefits. It reflects the cultural value of hard work, patience, and reaping the rewards of one's efforts over time. The idea of planting a seed symbolizes investing in something now to enjoy the results later, highlighting the concept of delayed gratification.
+3. Translation Clarification: In the literal translation, "fa" means "plant," "okyena" means "seed," "ye'beba" means "tomorrow it will bear fruit," "ayi" means "and," "nwotwe" means "I will eat," and "m'afa" means "my share." The phrase "na me so m'afa" is idiomatic and signifies the speaker's intention to partake in the benefits or rewards of the future outcome. The translation captures the essence of the proverb, conveying the idea of investing effort now for future gain, with the speaker expressing their readiness to enjoy the fruits of their labor.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "If you call me a fool, you will hang on this palm tree, and I will shave my head."
 Footnote:
-Literal Translation Mapping: "M'anansesem a metooye yi" translates to "My proverbial sayings that I have said." "Se eye de o, se ennye de o" translates to "if you heed them, if you ignore them." "Momfa bi nko na momfa bi mmere me" translates to "you will prosper; you will suffer loss."
-Cultural Context: The Akan culture places a strong emphasis on proverbs and wise sayings as a means of imparting knowledge and wisdom. Proverbs are often used to teach moral lessons, offer advice, and guide behavior in various situations. In this context, the speaker is emphasizing the importance of paying attention to and following the wisdom contained in their proverbial sayings for success and avoiding negative consequences.
-Translation Clarification: The phrase "eye de o" means "you heed them" or "you pay attention to them," while "ennyede o" means "you ignore them." The word "momfa" means "to prosper" or "to succeed," and "nko" means "to suffer loss" or "to experience hardship." By following or ignoring the proverbial sayings, the listener is either set to prosper or face loss, highlighting the importance of wisdom and guidance in decision-making.</t>
+1. Literal Translation Mapping: The literal translation of the Akan line is: "Ananse see, 'If you call me a fool, you will hang on this palm tree, and I will shave my head.'" This mapping directly reflects the sequence of events described in the sentence.
+2. Cultural Context: Ananse is a popular character in Akan folklore known for his cunning and trickery. In this line, Ananse is using a threat to demonstrate his cleverness and ability to outsmart others. The reference to hanging on a palm tree and shaving his head are symbolic actions that emphasize the consequences of underestimating or insulting him.
+3. Translation Clarification: The phrase "Wo bu me 'kwasea" translates to "If you call me a fool." In Akan culture, being called a fool is a serious insult that challenges one's intelligence and reputation. The threat of hanging on a palm tree and shaving the head are extreme consequences that highlight the severity of the insult and Ananse's determination to prove his intelligence and cunning.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+"The crab does not give birth to a bird, and the bird does not have teeth."
+Expanded Footnote:
+1. Literal Translation Mapping: The literal translation of "Adeekyeye ye'koye, na ayi nwotwe" is "The crab does not give birth to a bird, and the bird does not have teeth." This literal translation highlights the contrast between two different creatures and their inherent characteristics.
+2. Cultural Context: This Akan proverb is used to emphasize the idea that each individual has their own unique traits and abilities. It conveys the message that one should not expect someone to possess qualities that are not inherent to them or to be someone they are not.
+3. Translation Clarification: In this proverb, "Adeekyeye" refers to a crab, which symbolizes a creature that does not give birth to birds, representing the idea of different species having distinct characteristics. "Ye'koye" means "does not give birth to," emphasizing the impossibility of a crab giving birth to a bird. "Ayi" refers to a bird, and "nwotwe" means "teeth," highlighting the fact that birds do not have teeth. This proverb serves as a reminder to accept and appreciate the unique qualities and abilities of others.</t>
+  </si>
+  <si>
+    <t>English Translation: Anene said, "Go, for the rain is about to fall on my farm."
+Footnote:
+1. Literal Translation Mapping: "Fa, na okyena me so m'afa dunsia" translates to "Go, for rain is about to fall on my farm." The literal translation connects with the actual meaning of the sentence by conveying the urgency and necessity for someone to leave because rain is imminent and could affect the farm.
+2. Cultural Context: In Akan culture, farming is a significant aspect of livelihood, and the timing of rain is crucial for agricultural activities. The statement reflects the practicality and awareness of the speaker, Anene, in advising someone to leave before the rain falls to avoid any negative impact on the farm.
+3. Translation Clarification: 
+- "Fa" translates to "Go," indicating the action of leaving or moving away.
+- "Okyena" means "rain," emphasizing the specific weather condition that is about to occur.
+- "Me so" translates to "is about to," indicating the imminent nature of the rain.
+- "M'afa dunsia" translates to "on my farm," specifying the location where the rain is expected to fall. This phrase highlights the personal connection of the speaker to the farm and the importance of protecting it from the impending rain.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said, "If you call me a fool, you should remember that the spider's head is close to its mouth, and the chicken's feathers cover its buttocks."
+Expanded Footnote:
+1. Literal Translation Mapping: The literal translation of the Akan text connects with the actual meaning of the sentence by highlighting the consequences of insulting someone. The reference to the spider's head being close to its mouth and the chicken's feathers covering its buttocks implies that one should be cautious when insulting others as the repercussions may be immediate and unexpected.
+2. Cultural Context: In Akan culture, Ananse is a popular folklore character known for his cunning and wisdom. The use of animals like the spider and chicken in the proverb reflects the importance of wit and intelligence in navigating social interactions. Insults and disrespect are taken seriously in Akan society, and this proverb serves as a warning against underestimating others.
+3. Translation Clarification: The phrase "wo so fa nwotwe" translates to "you should remember that the spider's head is close to its mouth." This emphasizes the idea of being mindful of the consequences of one's actions. Similarly, "okyena m'afa dunsia" translates to "the chicken's feathers cover its buttocks," highlighting the idea that one's vulnerabilities may not always be visible to others. The overall message of the proverb is to be mindful of the words we speak and the impact they can have on others.</t>
+  </si>
+  <si>
+    <t>English Translation: When the bird refused to fly, Anene asked Ananse to tell it, "If you don't fly, the hawk will catch you, and when it does, it will tear you apart, so your father Ananse will lose this beautiful feather and give it to me."
+Footnote:
+1. Literal Translation Mapping: "Efei na nsoa no asee" translates to "When the bird refused to fly." Each word in the Akan sentence corresponds to its English equivalent, maintaining the sequence and meaning of the action described.
+2. Cultural Context: Ananse and Anene are popular characters in Akan folklore, with Ananse being a cunning spider known for his cleverness and Anene being a wise old man. The mention of the hawk and the feather alludes to the dangers and consequences of not taking action or making a decision in the story.
+3. Translation Clarification: "Ko fa nsoa funu bra" translates to "If you don't fly, the hawk will catch you." The phrase "bafua bi'a, ntanu" translates to "it will tear you apart," emphasizing the violent outcome of being caught by the hawk. The term "Agya Ananse" refers to "your father Ananse," highlighting the familial relationship between the characters and the potential loss of pride or possession.</t>
+  </si>
+  <si>
+    <t>English Translation: Ananse said, "If you don't hang the cooking pot high, then I will also not hang my sack of wisdom high."
+Footnote:
+1. Literal Translation Mapping: Ananse see, "Dabi, wo ko ton adwene no fa, na me so me'ko ton nsoa funu yi m'afa." translates to "Ananse said, 'If you don't hang the cooking pot high, then I will also not hang my sack of wisdom high.'" The literal translation connects by illustrating a conditional statement where Ananse is using the hanging of objects (cooking pot and sack of wisdom) as a metaphor for a certain action or behavior.
+2. Cultural Context: Ananse is a popular folklore character in Akan culture known for his cunning and wisdom. In this line, Ananse is using a metaphor to convey a message about reciprocity and fairness. Hanging the cooking pot high symbolizes taking precautions or being prepared, while hanging the sack of wisdom high represents sharing knowledge or wisdom.
+3. Translation Clarification: The phrase "wo ko ton adwene no fa" translates to "you don't hang the cooking pot high," emphasizing the importance of being cautious or prepared. "Me so me'ko ton nsoa funu yi m'afa" translates to "I will also not hang my sack of wisdom high," indicating that Ananse will not share his wisdom if the other party does not reciprocate. The metaphorical use of hanging objects in this Akan line conveys a deeper message about mutual respect and exchange of knowledge.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation: "The palm tree says it will stand still until the last day."
+Expanded Footnote:
+1. Literal Translation Mapping: 
+- "Ye'soasoaye" translates to "palm tree says."
+- "Koo" translates to "stand still."
+- "Edwam'" translates to "until the last day."
+2. Cultural Context:
+- In Akan culture, the palm tree is a symbol of resilience, strength, and longevity. It is often used in proverbs and sayings to convey the idea of standing firm or enduring challenges.
+- The concept of "the last day" in this context refers to a final or ultimate moment, emphasizing the unwavering nature of the palm tree's resolve.
+3. Translation Clarification:
+- The literal translation reflects the Akan belief in the enduring nature of the palm tree, symbolizing steadfastness and resilience.
+- "Koo" conveys the idea of standing still or remaining firm, emphasizing the palm tree's unwavering stance.
+- "Edwam'" signifies the finality or ultimate end, highlighting the commitment of the palm tree to remain steadfast until the very end. 
+Overall, the Akan line conveys a message of determination, resilience, and unwavering commitment to endure challenges until the end.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+"Patience is the key to success; it yields abundant wealth."
+Expanded Footnote:
+1. Literal Translation Mapping: "Seisei" means patience, "na" is a connector, "Anene" means key, "die" means to, "nnyina" means success, "asa" means yield; "onyaa" means abundant, "sika" means wealth, and "bebre" means plenty.
+2. Cultural Context: This Akan proverb emphasizes the importance of patience in achieving success and accumulating wealth. In Akan culture, patience is highly valued as a virtue that leads to prosperity and success in various aspects of life.
+3. Translation Clarification: The literal translation of the Akan text highlights the direct connection between patience, success, and wealth. The phrase "onyaa sika bebre" specifically emphasizes the idea of abundant wealth, indicating that patience leads to not just wealth, but plenty of it. The use of the word "Anene" to mean key signifies that patience is the essential tool or factor that unlocks success and prosperity.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation: And he said Ananse.
+Footnote:
+1. Literal Translation Mapping: "Na" means "and" in Akan, and "aka" means "said." Therefore, "Na aka Ananse" translates to "And said Ananse."
+2. Cultural Context: Ananse is a popular character in Akan folklore known for his cunning and wisdom. He is often portrayed as a spider who outsmarts others through his cleverness. In this context, the mention of Ananse may refer to a situation where someone is being clever or using their wit to navigate a situation.
+3. Translation Clarification: The literal translation accurately conveys the sequence of events in the sentence, where someone is speaking and the subject of the conversation is Ananse. The mention of Ananse in Akan culture typically signifies a clever or cunning individual, so the English translation "And he said Ananse" captures the essence of someone making a statement involving wit or cleverness.</t>
+  </si>
+  <si>
+    <t>Translation: Anene told him, "If the bird does not dance well, it is the drum's fault."
+Expanded Footnote:
+1. Literal Translation Mapping: The literal translation of the Akan line is "Anene said to him, 'If the bird does not dance well, it is the fault of the drum.'" This literal translation connects with the actual meaning of the sentence by illustrating a cause-and-effect relationship between the bird's performance and the drum's responsibility for the outcome.
+2. Cultural Context: This Akan proverb reflects the cultural belief that success or failure is not solely attributed to one individual but can be influenced by external factors. In this context, the bird represents the performer or individual, while the drum symbolizes the external circumstances or environment that can impact the performance.
+3. Translation Clarification: In the Akan language, "fa" means "dance," "nsoa" means "bird," "funu" means "well," "yi" means "not," "ko" means "fault," "kyin" means "drum," and "ye'beto" means "it is." The faithful English translation of the proverb is "If the bird does not dance well, it is the drum's fault." This translation clarifies that the success or failure of an individual's performance can be influenced by external factors beyond their control, emphasizing the interconnectedness of actions and outcomes in Akan culture.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+Spider said; he exclaimed, "I will catch the hornet!"
+Footnote:
+1. Literal Translation Mapping: "Ananse maa so" translates to "Spider said," indicating that the character Ananse is speaking. "Osee, 'Me ton nsoa funu o!'" translates to "he exclaimed, 'I will catch the hornet!'" showing Ananse's intention to catch the hornet.
+2. Cultural Context: Ananse is a popular character in Akan folklore known for his cunning and trickery. In this context, Ananse is portrayed as confident and determined, as he plans to catch a hornet, which symbolizes a challenging task or adversary.
+3. Translation Clarification: "Ananse maa so" directly translates to "Spider said," highlighting the speaker as Ananse. "Osee" is used to indicate an exclamation or declaration, followed by Ananse's statement, "Me ton nsoa funu o!" which translates to "I will catch the hornet!" This phrase showcases Ananse's boldness and determination in facing a difficult situation, reflecting his cunning nature in Akan folklore.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+"When the spider spins, the web, 'Is this where you will sleep, you ask your child?' Ananse said."
+Expanded Footnote:
+1. Literal Translation Mapping: The literal translation of the Akan text is: "When the spider spins, the web, 'Is this where you will sleep, you ask your child?' Ananse said." This mapping shows how the action of the spider spinning a web is used metaphorically to convey a message or ask a question.
+2. Cultural Context: In Akan culture, Ananse is a popular folklore character known for his wisdom and cunning nature. Ananse is often portrayed as a spider who outsmarts others through his cleverness. In this context, the spider spinning a web symbolizes the act of creating a plan or setting up a situation to achieve a specific outcome.
+3. Translation Clarification: The phrase "Is this where you will sleep, you ask your child?" is a metaphorical way of questioning someone's intentions or decisions. In this case, Ananse is using this metaphor to challenge or provoke someone to think about their actions or choices. The reference to asking one's child implies a sense of responsibility and accountability for one's decisions. The phrase "Ananse said" indicates that this wisdom or lesson is attributed to Ananse, the wise spider character in Akan folklore.</t>
+  </si>
+  <si>
+    <t>Translation: The chief said, "You act as if we are fools in your town; you hide these secrets from us, and your secret dealings, do you think we are unaware of them?"
+Footnote:
+1. Literal Translation Mapping: "Wo gye di se yen a ye'wo kurom' ha ye'ye nkwasea; na wo yonko beton adwene yi, w'anhu, na w'abe-ton nsoa funu ama yen?" translates to "You act as if we are fools in your town; you hide these secrets from us, and your secret dealings, do you think we are unaware of them?" The literal translation captures the essence of the chief expressing disbelief at the behavior of the person being addressed.
+2. Cultural Context: In Akan culture, chiefs hold positions of authority and respect within their communities. The chief in this context is questioning the actions of someone who is behaving deceitfully or disrespectfully towards the community. The use of the term "nkwasea" (fool) is a strong term indicating disdain or disbelief in the person's actions.
+3. Translation Clarification: The phrase "wo gye di se" translates to "you act as if" in English, capturing the sense of disbelief or incredulity expressed by the chief. "Yen a ye'wo kurom' ha ye'ye" translates to "we are fools in your town," highlighting the perceived disrespect towards the community. "Na wo yonko beton adwene yi" translates to "you hide these secrets from us," emphasizing the secretive behavior being called out. "W'anhu, na w'abe-ton nsoa funu ama yen?" translates to "do you think we are unaware of them?" showing the chief's awareness and questioning of the person's actions.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation:
+The chief said, "You know it."
+Expanded Footnote:
+1. Literal Translation Mapping: The Akan phrase "Mo mmo' no" translates literally to "You know it." The word "mo" means "you," "mmo" means "know," and "no" is a pronoun indicating "it."
+2. Cultural Context: In Akan culture, chiefs are respected figures who often speak with authority and wisdom. When a chief says "Mo mmo' no," it can imply a sense of affirmation or acknowledgment of the listener's understanding or knowledge.
+3. Translation Clarification: The phrase "Mo mmo' no" is a direct and straightforward way of acknowledging someone's knowledge or understanding of a particular subject. In English, this can be translated as "You know it," indicating that the listener is already aware of the information being discussed. The use of the pronoun "it" in the Akan phrase is a general reference to a specific topic or subject known to both the speaker and the listener.</t>
+  </si>
+  <si>
+    <t>Akan to English Translation: "We have eaten it."
+Expanded Footnote:
+1. Literal Translation Mapping: The literal translation of "Na ye'fwee no" is "We have eaten it." In this phrase, "na" means "we," "ye" means "have," "fwee" means "eaten," and "no" is a pronoun indicating the object being eaten. The literal translation accurately reflects the action of consuming food.
+2. Cultural Context: In Akan culture, sharing a meal is a significant social activity that fosters unity and togetherness. The act of eating together signifies bonding and camaraderie among individuals or within a community. Therefore, the statement "Na ye'fwee no" may imply that a group of people has shared a meal together, reinforcing their relationships and connections.
+3. Translation Clarification: 
+- "Na" is a pronoun that indicates the first-person plural "we."
+- "Ye" is a verb indicating possession or action in the past tense, translating to "have" in English.
+- "Fwee" is the verb "to eat" in the past tense, which translates to "eaten" in English.
+- "No" is a pronoun referring to the object that has been eaten. In this context, it could be food or a meal.</t>
+  </si>
+  <si>
+    <t>Translation: Anene said, "If Ananse's mouth is big, his teeth are big; if you say a fool is working, his mouth will say you are the fool."
+Expanded Footnote:
+1. Literal Translation Mapping: The literal translation of the Akan text is: "And Anene said, 'Ananse's mouth is big, his teeth are big; if you say a fool is working, his mouth will say you are the fool.'" This literal translation highlights the comparison between Ananse's mouth and teeth, as well as the interaction between calling someone a fool and their response.
+2. Cultural Context: Ananse is a popular character in Akan folklore known for his cunning and trickery. In this context, Anene is using a metaphor to describe how Ananse's actions and words are interconnected. The reference to a fool in the second part of the sentence reflects the cultural value placed on wisdom and intelligence in Akan society.
+3. Translation Clarification: The phrase "Ananse's mouth is big, his teeth are big" is a metaphorical way of saying that Ananse's words and actions are closely related. The second part of the sentence emphasizes the idea that if you accuse someone of being foolish or incompetent, they may respond by turning the accusation back on you. This line serves as a cautionary tale about the consequences of underestimating others and the importance of being mindful of one's words and actions.</t>
+  </si>
+  <si>
+    <t>English Translation: My proverbial saying, if it hits the ground, it's not lost, if it doesn't hit the ground, it's not lost, pick one up, and pick another one up.
+Expanded Footnote:
+1. Literal Translation Mapping: "M'anansesem a metooye yi" translates to "My proverbial saying." "Se eye de o, se ennye de o" translates to "if it hits the ground, it's not lost, if it doesn't hit the ground, it's not lost." "Momfa bi nko, na momfa bi mmera" translates to "pick one up, and pick another one up." The literal translation connects with the actual meaning of the sentence by emphasizing the importance of not giving up and continuing to try, even if one fails initially.
+2. Cultural Context: This Akan proverb highlights the value of perseverance and resilience in the face of challenges. It encourages individuals to keep trying and not be discouraged by setbacks. The use of the metaphor of picking up something that has fallen to the ground symbolizes the idea of not letting failure or obstacles deter one from pursuing their goals.
+3. Translation Clarification: The phrase "momfa bi nko, na momfa bi mmera" is a call to action to keep trying and not give up. The word "momfa" means to pick up or lift, emphasizing the act of not leaving things behind but instead taking the opportunity to try again. The repetition of the phrase "se eye de o, se ennye de o" reinforces the idea that whether something fails or succeeds initially, there is always a chance to try again and succeed.</t>
   </si>
   <si>
     <t>TimeStamp</t>
@@ -350,7 +1114,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>2025-03-07T14:10:51.065524</t>
+    <t>2025-03-07T15:26:54.194391</t>
   </si>
   <si>
     <t>GPT-4, GPT-3.5-turbo</t>
@@ -714,7 +1478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -741,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -749,7 +1513,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -757,7 +1521,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -765,7 +1529,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -773,7 +1537,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -781,7 +1545,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -789,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -797,7 +1561,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -805,7 +1569,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -813,7 +1577,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -821,7 +1585,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -829,7 +1593,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -837,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -845,7 +1609,311 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +1923,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -866,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -874,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -882,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -890,7 +1958,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -898,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -906,7 +1974,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -914,7 +1982,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -922,7 +1990,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -930,7 +1998,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -938,7 +2006,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -946,7 +2014,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -954,7 +2022,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -962,7 +2030,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -970,7 +2038,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -978,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -986,7 +2054,311 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -996,7 +2368,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1007,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1015,7 +2387,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1023,7 +2395,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1031,7 +2403,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1039,7 +2411,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1047,7 +2419,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1055,7 +2427,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1063,7 +2435,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1071,7 +2443,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1079,7 +2451,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1087,7 +2459,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1095,7 +2467,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1103,7 +2475,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1111,7 +2483,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1119,7 +2491,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1127,7 +2499,311 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1145,30 +2821,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
